--- a/engine_test.xlsx
+++ b/engine_test.xlsx
@@ -7,12 +7,13 @@
     <workbookView xWindow="0" yWindow="140" windowWidth="13920" windowHeight="4950"/>
   </bookViews>
   <sheets>
-    <sheet name="Definition" sheetId="1" r:id="rId1"/>
+    <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
+    <sheet name="Curve Properties" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Definition!$C$1:$L$45</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instrument Properties'!$C$1:$L$45</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
@@ -211,24 +212,6 @@
     <t>LINEAR_CCZR</t>
   </si>
   <si>
-    <t>FcastCurveL</t>
-  </si>
-  <si>
-    <t>FcastCurveR</t>
-  </si>
-  <si>
-    <t>DiscCurveL</t>
-  </si>
-  <si>
-    <t>DiscCurveR</t>
-  </si>
-  <si>
-    <t>ConventionL</t>
-  </si>
-  <si>
-    <t>ConventionR</t>
-  </si>
-  <si>
     <t>USDLIBOR3M</t>
   </si>
   <si>
@@ -236,6 +219,24 @@
   </si>
   <si>
     <t>USD-USDOIS</t>
+  </si>
+  <si>
+    <t>Forecast Curve Left</t>
+  </si>
+  <si>
+    <t>Forecast Curve Right</t>
+  </si>
+  <si>
+    <t>Discount Curve Left</t>
+  </si>
+  <si>
+    <t>Discount Curve Right</t>
+  </si>
+  <si>
+    <t>Convention Left</t>
+  </si>
+  <si>
+    <t>Convention Right</t>
   </si>
 </sst>
 </file>
@@ -638,10 +639,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O103"/>
+  <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
@@ -649,21 +651,19 @@
     <col min="1" max="1" width="45.81640625" style="4" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.453125" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="18.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="20" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.1796875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="18.26953125" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="6" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="8.54296875" customWidth="1"/>
-    <col min="14" max="14" width="26" style="4" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.1796875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>52</v>
       </c>
@@ -674,22 +674,22 @@
         <v>53</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="I1" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>54</v>
@@ -700,26 +700,20 @@
       <c r="L1" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="N1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="O1" s="3" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="2" spans="1:15">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="4" t="str">
         <f>CONCATENATE(B2,"__Deposit__3M")</f>
         <v>USDLIBOR3M__Deposit__3M</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>51</v>
@@ -745,26 +739,20 @@
       <c r="L2" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N2" s="4" t="s">
-        <v>70</v>
-      </c>
-      <c r="O2" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="4" t="str">
         <f>CONCATENATE(B3,"__Future__",J3,"_",K3)</f>
         <v>USDLIBOR3M__Future__1F_3M</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>51</v>
@@ -790,26 +778,20 @@
       <c r="L3" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N3" s="4" t="s">
-        <v>71</v>
-      </c>
-      <c r="O3" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="4" t="str">
         <f t="shared" ref="A4:A15" si="0">CONCATENATE(B4,"__Future__",J4,"_",K4)</f>
         <v>USDLIBOR3M__Future__2F_3M</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>51</v>
@@ -835,26 +817,20 @@
       <c r="L4" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="N4" s="4" t="s">
-        <v>72</v>
-      </c>
-      <c r="O4" s="6" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__3F_3M</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>51</v>
@@ -881,19 +857,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="6" spans="1:15">
+    <row r="6" spans="1:12">
       <c r="A6" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__4F_3M</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>51</v>
@@ -920,19 +896,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="7" spans="1:15">
+    <row r="7" spans="1:12">
       <c r="A7" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__5F_3M</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>51</v>
@@ -959,19 +935,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="8" spans="1:15">
+    <row r="8" spans="1:12">
       <c r="A8" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__6F_3M</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>51</v>
@@ -998,19 +974,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:15">
+    <row r="9" spans="1:12">
       <c r="A9" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__7F_3M</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>51</v>
@@ -1037,19 +1013,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:15">
+    <row r="10" spans="1:12">
       <c r="A10" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__8F_3M</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>51</v>
@@ -1076,19 +1052,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:15">
+    <row r="11" spans="1:12">
       <c r="A11" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__9F_3M</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>51</v>
@@ -1115,19 +1091,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="12" spans="1:15">
+    <row r="12" spans="1:12">
       <c r="A12" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__10F_3M</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>51</v>
@@ -1154,19 +1130,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="13" spans="1:15">
+    <row r="13" spans="1:12">
       <c r="A13" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__11F_3M</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>51</v>
@@ -1193,19 +1169,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="14" spans="1:15">
+    <row r="14" spans="1:12">
       <c r="A14" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__12F_3M</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>51</v>
@@ -1232,19 +1208,19 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:15">
+    <row r="15" spans="1:12">
       <c r="A15" s="4" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M__Future__13F_3M</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>51</v>
@@ -1271,31 +1247,31 @@
         <v>59</v>
       </c>
     </row>
-    <row r="16" spans="1:15">
+    <row r="16" spans="1:12">
       <c r="A16" s="4" t="str">
         <f>CONCATENATE(B16,"__Swap__",K16)</f>
         <v>USDLIBOR3M__Swap__4Y</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G16" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f t="shared" ref="H16:H39" si="1">D16</f>
+        <f t="shared" ref="H16:H47" si="1">D16</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I16" s="5" t="str">
@@ -1318,19 +1294,19 @@
         <v>USDLIBOR3M__Swap__5Y</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E17" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>51</v>
@@ -1359,19 +1335,19 @@
         <v>USDLIBOR3M__Swap__6Y</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G18" s="5" t="s">
         <v>51</v>
@@ -1400,19 +1376,19 @@
         <v>USDLIBOR3M__Swap__7Y</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G19" s="5" t="s">
         <v>51</v>
@@ -1441,19 +1417,19 @@
         <v>USDLIBOR3M__Swap__8Y</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G20" s="5" t="s">
         <v>51</v>
@@ -1482,19 +1458,19 @@
         <v>USDLIBOR3M__Swap__9Y</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G21" s="5" t="s">
         <v>51</v>
@@ -1523,19 +1499,19 @@
         <v>USDLIBOR3M__Swap__10Y</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G22" s="5" t="s">
         <v>51</v>
@@ -1564,19 +1540,19 @@
         <v>USDLIBOR3M__Swap__11Y</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E23" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>51</v>
@@ -1605,19 +1581,19 @@
         <v>USDLIBOR3M__Swap__12Y</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G24" s="5" t="s">
         <v>51</v>
@@ -1646,19 +1622,19 @@
         <v>USDLIBOR3M__Swap__13Y</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G25" s="5" t="s">
         <v>51</v>
@@ -1687,19 +1663,19 @@
         <v>USDLIBOR3M__Swap__14Y</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G26" s="5" t="s">
         <v>51</v>
@@ -1728,19 +1704,19 @@
         <v>USDLIBOR3M__Swap__15Y</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E27" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G27" s="5" t="s">
         <v>51</v>
@@ -1769,19 +1745,19 @@
         <v>USDLIBOR3M__Swap__16Y</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E28" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G28" s="5" t="s">
         <v>51</v>
@@ -1810,19 +1786,19 @@
         <v>USDLIBOR3M__Swap__17Y</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E29" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>51</v>
@@ -1851,19 +1827,19 @@
         <v>USDLIBOR3M__Swap__18Y</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E30" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G30" s="5" t="s">
         <v>51</v>
@@ -1892,19 +1868,19 @@
         <v>USDLIBOR3M__Swap__19Y</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G31" s="5" t="s">
         <v>51</v>
@@ -1933,19 +1909,19 @@
         <v>USDLIBOR3M__Swap__20Y</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>51</v>
@@ -1974,19 +1950,19 @@
         <v>USDLIBOR3M__Swap__25Y</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E33" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G33" s="5" t="s">
         <v>51</v>
@@ -2015,19 +1991,19 @@
         <v>USDLIBOR3M__Swap__30Y</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G34" s="5" t="s">
         <v>51</v>
@@ -2056,19 +2032,19 @@
         <v>USDLIBOR3M__Swap__35Y</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E35" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G35" s="5" t="s">
         <v>51</v>
@@ -2097,19 +2073,19 @@
         <v>USDLIBOR3M__Swap__40Y</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G36" s="5" t="s">
         <v>51</v>
@@ -2138,19 +2114,19 @@
         <v>USDLIBOR3M__Swap__45Y</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G37" s="5" t="s">
         <v>51</v>
@@ -2179,19 +2155,19 @@
         <v>USDLIBOR3M__Swap__50Y</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E38" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G38" s="5" t="s">
         <v>51</v>
@@ -2220,19 +2196,19 @@
         <v>USDLIBOR3M__Swap__60Y</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E39" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G39" s="5" t="s">
         <v>51</v>
@@ -2261,25 +2237,25 @@
         <v>USDLIBOR3M__Swap__70Y</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E40" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G40" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f>D40</f>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I40" s="5" t="str">
@@ -2302,25 +2278,25 @@
         <v>USD-USDOIS__TermDeposit__1B</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f>D41</f>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -2342,25 +2318,25 @@
         <v>USD-USDOIS__TermDeposit__1M</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E42" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G42" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" ref="H42:H73" si="5">D42</f>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -2382,25 +2358,25 @@
         <v>USD-USDOIS__TermDeposit__2M</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E43" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -2422,25 +2398,25 @@
         <v>USD-USDOIS__TermDeposit__3M</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -2462,25 +2438,25 @@
         <v>USD-USDOIS__TermDeposit__6M</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G45" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -2502,25 +2478,25 @@
         <v>USD-USDOIS__TermDeposit__1Y</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E46" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I46" s="5" t="s">
@@ -2542,25 +2518,25 @@
         <v>USD-USDOIS__TermDeposit__2Y</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E47" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -2582,25 +2558,25 @@
         <v>USD-USDOIS__TermDeposit__3Y</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E48" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" ref="H48:H79" si="5">D48</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I48" s="5" t="s">
@@ -2622,19 +2598,19 @@
         <v>USD-USDOIS__TermDeposit__4Y</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E49" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>51</v>
@@ -2662,19 +2638,19 @@
         <v>USD-USDOIS__TermDeposit__5Y</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E50" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G50" s="5" t="s">
         <v>51</v>
@@ -2702,19 +2678,19 @@
         <v>USD-USDOIS__TermDeposit__6Y</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E51" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G51" s="5" t="s">
         <v>51</v>
@@ -2742,19 +2718,19 @@
         <v>USD-USDOIS__TermDeposit__7Y</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E52" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>51</v>
@@ -2782,19 +2758,19 @@
         <v>USD-USDOIS__TermDeposit__8Y</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E53" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>51</v>
@@ -2822,19 +2798,19 @@
         <v>USD-USDOIS__TermDeposit__9Y</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E54" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>51</v>
@@ -2862,19 +2838,19 @@
         <v>USD-USDOIS__TermDeposit__10Y</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E55" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>51</v>
@@ -2902,19 +2878,19 @@
         <v>USD-USDOIS__TermDeposit__11Y</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E56" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G56" s="5" t="s">
         <v>51</v>
@@ -2942,19 +2918,19 @@
         <v>USD-USDOIS__TermDeposit__12Y</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E57" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>51</v>
@@ -2982,19 +2958,19 @@
         <v>USD-USDOIS__TermDeposit__13Y</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E58" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>51</v>
@@ -3022,19 +2998,19 @@
         <v>USD-USDOIS__TermDeposit__14Y</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E59" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G59" s="5" t="s">
         <v>51</v>
@@ -3062,19 +3038,19 @@
         <v>USD-USDOIS__TermDeposit__15Y</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E60" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>51</v>
@@ -3102,19 +3078,19 @@
         <v>USD-USDOIS__TermDeposit__16Y</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E61" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>51</v>
@@ -3142,19 +3118,19 @@
         <v>USD-USDOIS__TermDeposit__17Y</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E62" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G62" s="5" t="s">
         <v>51</v>
@@ -3182,19 +3158,19 @@
         <v>USD-USDOIS__TermDeposit__18Y</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E63" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G63" s="5" t="s">
         <v>51</v>
@@ -3222,19 +3198,19 @@
         <v>USD-USDOIS__TermDeposit__19Y</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E64" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>51</v>
@@ -3262,19 +3238,19 @@
         <v>USD-USDOIS__TermDeposit__20Y</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E65" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G65" s="5" t="s">
         <v>51</v>
@@ -3302,19 +3278,19 @@
         <v>USD-USDOIS__TermDeposit__25Y</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E66" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>51</v>
@@ -3342,19 +3318,19 @@
         <v>USD-USDOIS__TermDeposit__30Y</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E67" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>51</v>
@@ -3382,19 +3358,19 @@
         <v>USD-USDOIS__TermDeposit__35Y</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E68" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>51</v>
@@ -3422,19 +3398,19 @@
         <v>USD-USDOIS__TermDeposit__40Y</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E69" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>51</v>
@@ -3462,19 +3438,19 @@
         <v>USD-USDOIS__TermDeposit__45Y</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E70" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>51</v>
@@ -3502,19 +3478,19 @@
         <v>USD-USDOIS__TermDeposit__50Y</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E71" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>51</v>
@@ -3542,19 +3518,19 @@
         <v>USD-USDOIS__TermDeposit__60Y</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E72" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>51</v>
@@ -3582,19 +3558,19 @@
         <v>USD-USDOIS__TermDeposit__70Y</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>50</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E73" s="5" t="s">
         <v>51</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>51</v>
@@ -3622,25 +3598,25 @@
         <v>USDLIBOR6M__BasisSwap__3M</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" ref="H74:H103" si="6">D74</f>
+        <f t="shared" si="5"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I74" s="5" t="str">
@@ -3659,33 +3635,33 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7" t="str">
-        <f t="shared" ref="A75:A103" si="7">CONCATENATE(B75,"__BasisSwap__",K75)</f>
+        <f t="shared" ref="A75:A103" si="6">CONCATENATE(B75,"__BasisSwap__",K75)</f>
         <v>USDLIBOR6M__BasisSwap__6M</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I75" s="5" t="str">
-        <f t="shared" ref="I75:I103" si="8">E75</f>
+        <f t="shared" ref="I75:I103" si="7">E75</f>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J75" s="5" t="s">
@@ -3700,33 +3676,33 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__1Y</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I76" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J76" s="5" t="s">
@@ -3741,33 +3717,33 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__2Y</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I77" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J77" s="5" t="s">
@@ -3782,33 +3758,33 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__3Y</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I78" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J78" s="5" t="s">
@@ -3823,33 +3799,33 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__4Y</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="5"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I79" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J79" s="5" t="s">
@@ -3864,33 +3840,33 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__5Y</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" ref="H80:H103" si="8">D80</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I80" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J80" s="5" t="s">
@@ -3905,33 +3881,33 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__6Y</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H81" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I81" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J81" s="5" t="s">
@@ -3946,33 +3922,33 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__7Y</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H82" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I82" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J82" s="5" t="s">
@@ -3987,33 +3963,33 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__8Y</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H83" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I83" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J83" s="5" t="s">
@@ -4028,33 +4004,33 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__9Y</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H84" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I84" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J84" s="5" t="s">
@@ -4069,33 +4045,33 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__10Y</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H85" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I85" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J85" s="5" t="s">
@@ -4110,33 +4086,33 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__11Y</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H86" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I86" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J86" s="5" t="s">
@@ -4151,33 +4127,33 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__12Y</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H87" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I87" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J87" s="5" t="s">
@@ -4192,33 +4168,33 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__13Y</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H88" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I88" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J88" s="5" t="s">
@@ -4233,33 +4209,33 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__14Y</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H89" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I89" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J89" s="5" t="s">
@@ -4274,33 +4250,33 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__15Y</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H90" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I90" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J90" s="5" t="s">
@@ -4315,33 +4291,33 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__16Y</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G91" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H91" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I91" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J91" s="5" t="s">
@@ -4356,33 +4332,33 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__17Y</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H92" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I92" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J92" s="5" t="s">
@@ -4397,33 +4373,33 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__18Y</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G93" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H93" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I93" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J93" s="5" t="s">
@@ -4438,33 +4414,33 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__19Y</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G94" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H94" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I94" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J94" s="5" t="s">
@@ -4479,33 +4455,33 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__20Y</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G95" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H95" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I95" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J95" s="5" t="s">
@@ -4520,33 +4496,33 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__25Y</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G96" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H96" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I96" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J96" s="5" t="s">
@@ -4561,33 +4537,33 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__30Y</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G97" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H97" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I97" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J97" s="5" t="s">
@@ -4602,33 +4578,33 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__35Y</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G98" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H98" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I98" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J98" s="5" t="s">
@@ -4643,33 +4619,33 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__40Y</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G99" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H99" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I99" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J99" s="5" t="s">
@@ -4684,33 +4660,33 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__45Y</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G100" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H100" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I100" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J100" s="5" t="s">
@@ -4725,33 +4701,33 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__50Y</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G101" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H101" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I101" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J101" s="5" t="s">
@@ -4766,33 +4742,33 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__60Y</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H102" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I102" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J102" s="5" t="s">
@@ -4807,33 +4783,33 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR6M__BasisSwap__70Y</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>61</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="G103" s="5" t="s">
         <v>51</v>
       </c>
       <c r="H103" s="5" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I103" s="5" t="str">
-        <f t="shared" si="8"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J103" s="5" t="s">
@@ -4862,4 +4838,55 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <cols>
+    <col min="1" max="1" width="16" style="4" customWidth="1"/>
+    <col min="2" max="2" width="15.08984375" style="6" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/engine_test.xlsx
+++ b/engine_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="140" windowWidth="13920" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="73">
   <si>
     <t>3M</t>
   </si>
@@ -641,26 +641,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F9" sqref="F9"/>
+      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.81640625" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.453125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.1796875" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7265625" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.26953125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.85546875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.54296875" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.1796875" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.26953125" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7265625" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.54296875" customWidth="1"/>
+    <col min="13" max="13" width="8.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
@@ -724,8 +724,9 @@
       <c r="G2" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H2" s="5" t="s">
-        <v>51</v>
+      <c r="H2" s="5" t="str">
+        <f t="shared" ref="H2:H15" si="0">D2</f>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I2" s="5" t="s">
         <v>51</v>
@@ -763,8 +764,9 @@
       <c r="G3" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H3" s="5" t="s">
-        <v>51</v>
+      <c r="H3" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>51</v>
@@ -781,7 +783,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="4" t="str">
-        <f t="shared" ref="A4:A15" si="0">CONCATENATE(B4,"__Future__",J4,"_",K4)</f>
+        <f t="shared" ref="A4:A15" si="1">CONCATENATE(B4,"__Future__",J4,"_",K4)</f>
         <v>USDLIBOR3M__Future__2F_3M</v>
       </c>
       <c r="B4" s="5" t="s">
@@ -802,8 +804,9 @@
       <c r="G4" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H4" s="5" t="s">
-        <v>51</v>
+      <c r="H4" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I4" s="5" t="s">
         <v>51</v>
@@ -820,7 +823,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__3F_3M</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -841,8 +844,9 @@
       <c r="G5" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H5" s="5" t="s">
-        <v>51</v>
+      <c r="H5" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I5" s="5" t="s">
         <v>51</v>
@@ -859,7 +863,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__4F_3M</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -880,8 +884,9 @@
       <c r="G6" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H6" s="5" t="s">
-        <v>51</v>
+      <c r="H6" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>51</v>
@@ -898,7 +903,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__5F_3M</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -919,8 +924,9 @@
       <c r="G7" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H7" s="5" t="s">
-        <v>51</v>
+      <c r="H7" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I7" s="5" t="s">
         <v>51</v>
@@ -937,7 +943,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__6F_3M</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -958,8 +964,9 @@
       <c r="G8" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H8" s="5" t="s">
-        <v>51</v>
+      <c r="H8" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I8" s="5" t="s">
         <v>51</v>
@@ -976,7 +983,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__7F_3M</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -997,8 +1004,9 @@
       <c r="G9" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H9" s="5" t="s">
-        <v>51</v>
+      <c r="H9" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I9" s="5" t="s">
         <v>51</v>
@@ -1015,7 +1023,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__8F_3M</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1036,8 +1044,9 @@
       <c r="G10" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H10" s="5" t="s">
-        <v>51</v>
+      <c r="H10" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I10" s="5" t="s">
         <v>51</v>
@@ -1054,7 +1063,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__9F_3M</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1075,8 +1084,9 @@
       <c r="G11" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H11" s="5" t="s">
-        <v>51</v>
+      <c r="H11" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I11" s="5" t="s">
         <v>51</v>
@@ -1093,7 +1103,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__10F_3M</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1114,8 +1124,9 @@
       <c r="G12" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H12" s="5" t="s">
-        <v>51</v>
+      <c r="H12" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I12" s="5" t="s">
         <v>51</v>
@@ -1132,7 +1143,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__11F_3M</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -1153,8 +1164,9 @@
       <c r="G13" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H13" s="5" t="s">
-        <v>51</v>
+      <c r="H13" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I13" s="5" t="s">
         <v>51</v>
@@ -1171,7 +1183,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__12F_3M</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -1192,8 +1204,9 @@
       <c r="G14" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H14" s="5" t="s">
-        <v>51</v>
+      <c r="H14" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I14" s="5" t="s">
         <v>51</v>
@@ -1210,7 +1223,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="4" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>USDLIBOR3M__Future__13F_3M</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -1231,8 +1244,9 @@
       <c r="G15" s="5" t="s">
         <v>51</v>
       </c>
-      <c r="H15" s="5" t="s">
-        <v>51</v>
+      <c r="H15" s="5" t="str">
+        <f t="shared" si="0"/>
+        <v>USDLIBOR3M</v>
       </c>
       <c r="I15" s="5" t="s">
         <v>51</v>
@@ -1271,7 +1285,7 @@
         <v>51</v>
       </c>
       <c r="H16" s="5" t="str">
-        <f t="shared" ref="H16:H47" si="1">D16</f>
+        <f t="shared" ref="H16:H47" si="2">D16</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I16" s="5" t="str">
@@ -1290,7 +1304,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="4" t="str">
-        <f t="shared" ref="A17:A40" si="2">CONCATENATE(B17,"__Swap__",K17)</f>
+        <f t="shared" ref="A17:A40" si="3">CONCATENATE(B17,"__Swap__",K17)</f>
         <v>USDLIBOR3M__Swap__5Y</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -1312,11 +1326,11 @@
         <v>51</v>
       </c>
       <c r="H17" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I17" s="5" t="str">
-        <f t="shared" ref="I17:I40" si="3">D17</f>
+        <f t="shared" ref="I17:I40" si="4">D17</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J17" s="5" t="s">
@@ -1331,7 +1345,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__6Y</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -1353,11 +1367,11 @@
         <v>51</v>
       </c>
       <c r="H18" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I18" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J18" s="5" t="s">
@@ -1372,7 +1386,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__7Y</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -1394,11 +1408,11 @@
         <v>51</v>
       </c>
       <c r="H19" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I19" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J19" s="5" t="s">
@@ -1413,7 +1427,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__8Y</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -1435,11 +1449,11 @@
         <v>51</v>
       </c>
       <c r="H20" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I20" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J20" s="5" t="s">
@@ -1454,7 +1468,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__9Y</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -1476,11 +1490,11 @@
         <v>51</v>
       </c>
       <c r="H21" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I21" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J21" s="5" t="s">
@@ -1495,7 +1509,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__10Y</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -1517,11 +1531,11 @@
         <v>51</v>
       </c>
       <c r="H22" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I22" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J22" s="5" t="s">
@@ -1536,7 +1550,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__11Y</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -1558,11 +1572,11 @@
         <v>51</v>
       </c>
       <c r="H23" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I23" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J23" s="5" t="s">
@@ -1577,7 +1591,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__12Y</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -1599,11 +1613,11 @@
         <v>51</v>
       </c>
       <c r="H24" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I24" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J24" s="5" t="s">
@@ -1618,7 +1632,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__13Y</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -1640,11 +1654,11 @@
         <v>51</v>
       </c>
       <c r="H25" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I25" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J25" s="5" t="s">
@@ -1659,7 +1673,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__14Y</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -1681,11 +1695,11 @@
         <v>51</v>
       </c>
       <c r="H26" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I26" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J26" s="5" t="s">
@@ -1700,7 +1714,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__15Y</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -1722,11 +1736,11 @@
         <v>51</v>
       </c>
       <c r="H27" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I27" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J27" s="5" t="s">
@@ -1741,7 +1755,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__16Y</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -1763,11 +1777,11 @@
         <v>51</v>
       </c>
       <c r="H28" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I28" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J28" s="5" t="s">
@@ -1782,7 +1796,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__17Y</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -1804,11 +1818,11 @@
         <v>51</v>
       </c>
       <c r="H29" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I29" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J29" s="5" t="s">
@@ -1823,7 +1837,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__18Y</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -1845,11 +1859,11 @@
         <v>51</v>
       </c>
       <c r="H30" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I30" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J30" s="5" t="s">
@@ -1864,7 +1878,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__19Y</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -1886,11 +1900,11 @@
         <v>51</v>
       </c>
       <c r="H31" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I31" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J31" s="5" t="s">
@@ -1905,7 +1919,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__20Y</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -1927,11 +1941,11 @@
         <v>51</v>
       </c>
       <c r="H32" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I32" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J32" s="5" t="s">
@@ -1946,7 +1960,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__25Y</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -1968,11 +1982,11 @@
         <v>51</v>
       </c>
       <c r="H33" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I33" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J33" s="5" t="s">
@@ -1987,7 +2001,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__30Y</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -2009,11 +2023,11 @@
         <v>51</v>
       </c>
       <c r="H34" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I34" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J34" s="5" t="s">
@@ -2028,7 +2042,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__35Y</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -2050,11 +2064,11 @@
         <v>51</v>
       </c>
       <c r="H35" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I35" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J35" s="5" t="s">
@@ -2069,7 +2083,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__40Y</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -2091,11 +2105,11 @@
         <v>51</v>
       </c>
       <c r="H36" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I36" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J36" s="5" t="s">
@@ -2110,7 +2124,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__45Y</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -2132,11 +2146,11 @@
         <v>51</v>
       </c>
       <c r="H37" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I37" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J37" s="5" t="s">
@@ -2151,7 +2165,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__50Y</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -2173,11 +2187,11 @@
         <v>51</v>
       </c>
       <c r="H38" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I38" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J38" s="5" t="s">
@@ -2192,7 +2206,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__60Y</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -2214,11 +2228,11 @@
         <v>51</v>
       </c>
       <c r="H39" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I39" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J39" s="5" t="s">
@@ -2233,7 +2247,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="4" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>USDLIBOR3M__Swap__70Y</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -2255,11 +2269,11 @@
         <v>51</v>
       </c>
       <c r="H40" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I40" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="4"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="J40" s="5" t="s">
@@ -2296,7 +2310,7 @@
         <v>51</v>
       </c>
       <c r="H41" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I41" s="5" t="s">
@@ -2314,7 +2328,7 @@
     </row>
     <row r="42" spans="1:12">
       <c r="A42" s="7" t="str">
-        <f t="shared" ref="A42:A73" si="4">CONCATENATE(B42,"__TermDeposit__",K42)</f>
+        <f t="shared" ref="A42:A73" si="5">CONCATENATE(B42,"__TermDeposit__",K42)</f>
         <v>USD-USDOIS__TermDeposit__1M</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -2336,7 +2350,7 @@
         <v>51</v>
       </c>
       <c r="H42" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I42" s="5" t="s">
@@ -2354,7 +2368,7 @@
     </row>
     <row r="43" spans="1:12">
       <c r="A43" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__2M</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -2376,7 +2390,7 @@
         <v>51</v>
       </c>
       <c r="H43" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I43" s="5" t="s">
@@ -2394,7 +2408,7 @@
     </row>
     <row r="44" spans="1:12">
       <c r="A44" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__3M</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -2416,7 +2430,7 @@
         <v>51</v>
       </c>
       <c r="H44" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I44" s="5" t="s">
@@ -2434,7 +2448,7 @@
     </row>
     <row r="45" spans="1:12">
       <c r="A45" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__6M</v>
       </c>
       <c r="B45" s="5" t="s">
@@ -2456,7 +2470,7 @@
         <v>51</v>
       </c>
       <c r="H45" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I45" s="5" t="s">
@@ -2474,7 +2488,7 @@
     </row>
     <row r="46" spans="1:12">
       <c r="A46" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__1Y</v>
       </c>
       <c r="B46" s="5" t="s">
@@ -2496,7 +2510,7 @@
         <v>51</v>
       </c>
       <c r="H46" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I46" s="5" t="s">
@@ -2514,7 +2528,7 @@
     </row>
     <row r="47" spans="1:12">
       <c r="A47" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__2Y</v>
       </c>
       <c r="B47" s="5" t="s">
@@ -2536,7 +2550,7 @@
         <v>51</v>
       </c>
       <c r="H47" s="5" t="str">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I47" s="5" t="s">
@@ -2554,7 +2568,7 @@
     </row>
     <row r="48" spans="1:12">
       <c r="A48" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__3Y</v>
       </c>
       <c r="B48" s="5" t="s">
@@ -2576,7 +2590,7 @@
         <v>51</v>
       </c>
       <c r="H48" s="5" t="str">
-        <f t="shared" ref="H48:H79" si="5">D48</f>
+        <f t="shared" ref="H48:H79" si="6">D48</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I48" s="5" t="s">
@@ -2594,7 +2608,7 @@
     </row>
     <row r="49" spans="1:12">
       <c r="A49" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__4Y</v>
       </c>
       <c r="B49" s="5" t="s">
@@ -2616,7 +2630,7 @@
         <v>51</v>
       </c>
       <c r="H49" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I49" s="5" t="s">
@@ -2634,7 +2648,7 @@
     </row>
     <row r="50" spans="1:12">
       <c r="A50" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__5Y</v>
       </c>
       <c r="B50" s="5" t="s">
@@ -2656,7 +2670,7 @@
         <v>51</v>
       </c>
       <c r="H50" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I50" s="5" t="s">
@@ -2674,7 +2688,7 @@
     </row>
     <row r="51" spans="1:12">
       <c r="A51" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__6Y</v>
       </c>
       <c r="B51" s="5" t="s">
@@ -2696,7 +2710,7 @@
         <v>51</v>
       </c>
       <c r="H51" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I51" s="5" t="s">
@@ -2714,7 +2728,7 @@
     </row>
     <row r="52" spans="1:12">
       <c r="A52" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__7Y</v>
       </c>
       <c r="B52" s="5" t="s">
@@ -2736,7 +2750,7 @@
         <v>51</v>
       </c>
       <c r="H52" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I52" s="5" t="s">
@@ -2754,7 +2768,7 @@
     </row>
     <row r="53" spans="1:12">
       <c r="A53" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__8Y</v>
       </c>
       <c r="B53" s="5" t="s">
@@ -2776,7 +2790,7 @@
         <v>51</v>
       </c>
       <c r="H53" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I53" s="5" t="s">
@@ -2794,7 +2808,7 @@
     </row>
     <row r="54" spans="1:12">
       <c r="A54" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__9Y</v>
       </c>
       <c r="B54" s="5" t="s">
@@ -2816,7 +2830,7 @@
         <v>51</v>
       </c>
       <c r="H54" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I54" s="5" t="s">
@@ -2834,7 +2848,7 @@
     </row>
     <row r="55" spans="1:12">
       <c r="A55" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__10Y</v>
       </c>
       <c r="B55" s="5" t="s">
@@ -2856,7 +2870,7 @@
         <v>51</v>
       </c>
       <c r="H55" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I55" s="5" t="s">
@@ -2874,7 +2888,7 @@
     </row>
     <row r="56" spans="1:12">
       <c r="A56" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__11Y</v>
       </c>
       <c r="B56" s="5" t="s">
@@ -2896,7 +2910,7 @@
         <v>51</v>
       </c>
       <c r="H56" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I56" s="5" t="s">
@@ -2914,7 +2928,7 @@
     </row>
     <row r="57" spans="1:12">
       <c r="A57" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__12Y</v>
       </c>
       <c r="B57" s="5" t="s">
@@ -2936,7 +2950,7 @@
         <v>51</v>
       </c>
       <c r="H57" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I57" s="5" t="s">
@@ -2954,7 +2968,7 @@
     </row>
     <row r="58" spans="1:12">
       <c r="A58" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__13Y</v>
       </c>
       <c r="B58" s="5" t="s">
@@ -2976,7 +2990,7 @@
         <v>51</v>
       </c>
       <c r="H58" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I58" s="5" t="s">
@@ -2994,7 +3008,7 @@
     </row>
     <row r="59" spans="1:12">
       <c r="A59" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__14Y</v>
       </c>
       <c r="B59" s="5" t="s">
@@ -3016,7 +3030,7 @@
         <v>51</v>
       </c>
       <c r="H59" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I59" s="5" t="s">
@@ -3034,7 +3048,7 @@
     </row>
     <row r="60" spans="1:12">
       <c r="A60" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__15Y</v>
       </c>
       <c r="B60" s="5" t="s">
@@ -3056,7 +3070,7 @@
         <v>51</v>
       </c>
       <c r="H60" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I60" s="5" t="s">
@@ -3074,7 +3088,7 @@
     </row>
     <row r="61" spans="1:12">
       <c r="A61" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__16Y</v>
       </c>
       <c r="B61" s="5" t="s">
@@ -3096,7 +3110,7 @@
         <v>51</v>
       </c>
       <c r="H61" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I61" s="5" t="s">
@@ -3114,7 +3128,7 @@
     </row>
     <row r="62" spans="1:12">
       <c r="A62" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__17Y</v>
       </c>
       <c r="B62" s="5" t="s">
@@ -3136,7 +3150,7 @@
         <v>51</v>
       </c>
       <c r="H62" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I62" s="5" t="s">
@@ -3154,7 +3168,7 @@
     </row>
     <row r="63" spans="1:12">
       <c r="A63" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__18Y</v>
       </c>
       <c r="B63" s="5" t="s">
@@ -3176,7 +3190,7 @@
         <v>51</v>
       </c>
       <c r="H63" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I63" s="5" t="s">
@@ -3194,7 +3208,7 @@
     </row>
     <row r="64" spans="1:12">
       <c r="A64" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__19Y</v>
       </c>
       <c r="B64" s="5" t="s">
@@ -3216,7 +3230,7 @@
         <v>51</v>
       </c>
       <c r="H64" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I64" s="5" t="s">
@@ -3234,7 +3248,7 @@
     </row>
     <row r="65" spans="1:12">
       <c r="A65" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__20Y</v>
       </c>
       <c r="B65" s="5" t="s">
@@ -3256,7 +3270,7 @@
         <v>51</v>
       </c>
       <c r="H65" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I65" s="5" t="s">
@@ -3274,7 +3288,7 @@
     </row>
     <row r="66" spans="1:12">
       <c r="A66" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__25Y</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -3296,7 +3310,7 @@
         <v>51</v>
       </c>
       <c r="H66" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I66" s="5" t="s">
@@ -3314,7 +3328,7 @@
     </row>
     <row r="67" spans="1:12">
       <c r="A67" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__30Y</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -3336,7 +3350,7 @@
         <v>51</v>
       </c>
       <c r="H67" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I67" s="5" t="s">
@@ -3354,7 +3368,7 @@
     </row>
     <row r="68" spans="1:12">
       <c r="A68" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__35Y</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -3376,7 +3390,7 @@
         <v>51</v>
       </c>
       <c r="H68" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I68" s="5" t="s">
@@ -3394,7 +3408,7 @@
     </row>
     <row r="69" spans="1:12">
       <c r="A69" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__40Y</v>
       </c>
       <c r="B69" s="5" t="s">
@@ -3416,7 +3430,7 @@
         <v>51</v>
       </c>
       <c r="H69" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I69" s="5" t="s">
@@ -3434,7 +3448,7 @@
     </row>
     <row r="70" spans="1:12">
       <c r="A70" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__45Y</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -3456,7 +3470,7 @@
         <v>51</v>
       </c>
       <c r="H70" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I70" s="5" t="s">
@@ -3474,7 +3488,7 @@
     </row>
     <row r="71" spans="1:12">
       <c r="A71" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__50Y</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -3496,7 +3510,7 @@
         <v>51</v>
       </c>
       <c r="H71" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I71" s="5" t="s">
@@ -3514,7 +3528,7 @@
     </row>
     <row r="72" spans="1:12">
       <c r="A72" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__60Y</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -3536,7 +3550,7 @@
         <v>51</v>
       </c>
       <c r="H72" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I72" s="5" t="s">
@@ -3554,7 +3568,7 @@
     </row>
     <row r="73" spans="1:12">
       <c r="A73" s="7" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>USD-USDOIS__TermDeposit__70Y</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -3576,7 +3590,7 @@
         <v>51</v>
       </c>
       <c r="H73" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I73" s="5" t="s">
@@ -3616,7 +3630,7 @@
         <v>51</v>
       </c>
       <c r="H74" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I74" s="5" t="str">
@@ -3635,7 +3649,7 @@
     </row>
     <row r="75" spans="1:12">
       <c r="A75" s="7" t="str">
-        <f t="shared" ref="A75:A103" si="6">CONCATENATE(B75,"__BasisSwap__",K75)</f>
+        <f t="shared" ref="A75:A103" si="7">CONCATENATE(B75,"__BasisSwap__",K75)</f>
         <v>USDLIBOR6M__BasisSwap__6M</v>
       </c>
       <c r="B75" s="5" t="s">
@@ -3657,11 +3671,11 @@
         <v>51</v>
       </c>
       <c r="H75" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I75" s="5" t="str">
-        <f t="shared" ref="I75:I103" si="7">E75</f>
+        <f t="shared" ref="I75:I103" si="8">E75</f>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J75" s="5" t="s">
@@ -3676,7 +3690,7 @@
     </row>
     <row r="76" spans="1:12">
       <c r="A76" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__1Y</v>
       </c>
       <c r="B76" s="5" t="s">
@@ -3698,11 +3712,11 @@
         <v>51</v>
       </c>
       <c r="H76" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I76" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J76" s="5" t="s">
@@ -3717,7 +3731,7 @@
     </row>
     <row r="77" spans="1:12">
       <c r="A77" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__2Y</v>
       </c>
       <c r="B77" s="5" t="s">
@@ -3739,11 +3753,11 @@
         <v>51</v>
       </c>
       <c r="H77" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I77" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J77" s="5" t="s">
@@ -3758,7 +3772,7 @@
     </row>
     <row r="78" spans="1:12">
       <c r="A78" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__3Y</v>
       </c>
       <c r="B78" s="5" t="s">
@@ -3780,11 +3794,11 @@
         <v>51</v>
       </c>
       <c r="H78" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I78" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J78" s="5" t="s">
@@ -3799,7 +3813,7 @@
     </row>
     <row r="79" spans="1:12">
       <c r="A79" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__4Y</v>
       </c>
       <c r="B79" s="5" t="s">
@@ -3821,11 +3835,11 @@
         <v>51</v>
       </c>
       <c r="H79" s="5" t="str">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I79" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J79" s="5" t="s">
@@ -3840,7 +3854,7 @@
     </row>
     <row r="80" spans="1:12">
       <c r="A80" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__5Y</v>
       </c>
       <c r="B80" s="5" t="s">
@@ -3862,11 +3876,11 @@
         <v>51</v>
       </c>
       <c r="H80" s="5" t="str">
-        <f t="shared" ref="H80:H103" si="8">D80</f>
+        <f t="shared" ref="H80:H103" si="9">D80</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I80" s="5" t="str">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J80" s="5" t="s">
@@ -3881,7 +3895,7 @@
     </row>
     <row r="81" spans="1:12">
       <c r="A81" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__6Y</v>
       </c>
       <c r="B81" s="5" t="s">
@@ -3903,11 +3917,11 @@
         <v>51</v>
       </c>
       <c r="H81" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I81" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I81" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J81" s="5" t="s">
@@ -3922,7 +3936,7 @@
     </row>
     <row r="82" spans="1:12">
       <c r="A82" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__7Y</v>
       </c>
       <c r="B82" s="5" t="s">
@@ -3944,11 +3958,11 @@
         <v>51</v>
       </c>
       <c r="H82" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I82" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I82" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J82" s="5" t="s">
@@ -3963,7 +3977,7 @@
     </row>
     <row r="83" spans="1:12">
       <c r="A83" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__8Y</v>
       </c>
       <c r="B83" s="5" t="s">
@@ -3985,11 +3999,11 @@
         <v>51</v>
       </c>
       <c r="H83" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I83" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I83" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J83" s="5" t="s">
@@ -4004,7 +4018,7 @@
     </row>
     <row r="84" spans="1:12">
       <c r="A84" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__9Y</v>
       </c>
       <c r="B84" s="5" t="s">
@@ -4026,11 +4040,11 @@
         <v>51</v>
       </c>
       <c r="H84" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I84" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I84" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J84" s="5" t="s">
@@ -4045,7 +4059,7 @@
     </row>
     <row r="85" spans="1:12">
       <c r="A85" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__10Y</v>
       </c>
       <c r="B85" s="5" t="s">
@@ -4067,11 +4081,11 @@
         <v>51</v>
       </c>
       <c r="H85" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I85" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I85" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J85" s="5" t="s">
@@ -4086,7 +4100,7 @@
     </row>
     <row r="86" spans="1:12">
       <c r="A86" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__11Y</v>
       </c>
       <c r="B86" s="5" t="s">
@@ -4108,11 +4122,11 @@
         <v>51</v>
       </c>
       <c r="H86" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I86" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I86" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J86" s="5" t="s">
@@ -4127,7 +4141,7 @@
     </row>
     <row r="87" spans="1:12">
       <c r="A87" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__12Y</v>
       </c>
       <c r="B87" s="5" t="s">
@@ -4149,11 +4163,11 @@
         <v>51</v>
       </c>
       <c r="H87" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I87" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I87" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J87" s="5" t="s">
@@ -4168,7 +4182,7 @@
     </row>
     <row r="88" spans="1:12">
       <c r="A88" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__13Y</v>
       </c>
       <c r="B88" s="5" t="s">
@@ -4190,11 +4204,11 @@
         <v>51</v>
       </c>
       <c r="H88" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I88" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I88" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J88" s="5" t="s">
@@ -4209,7 +4223,7 @@
     </row>
     <row r="89" spans="1:12">
       <c r="A89" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__14Y</v>
       </c>
       <c r="B89" s="5" t="s">
@@ -4231,11 +4245,11 @@
         <v>51</v>
       </c>
       <c r="H89" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I89" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I89" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J89" s="5" t="s">
@@ -4250,7 +4264,7 @@
     </row>
     <row r="90" spans="1:12">
       <c r="A90" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__15Y</v>
       </c>
       <c r="B90" s="5" t="s">
@@ -4272,11 +4286,11 @@
         <v>51</v>
       </c>
       <c r="H90" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I90" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I90" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J90" s="5" t="s">
@@ -4291,7 +4305,7 @@
     </row>
     <row r="91" spans="1:12">
       <c r="A91" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__16Y</v>
       </c>
       <c r="B91" s="5" t="s">
@@ -4313,11 +4327,11 @@
         <v>51</v>
       </c>
       <c r="H91" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I91" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I91" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J91" s="5" t="s">
@@ -4332,7 +4346,7 @@
     </row>
     <row r="92" spans="1:12">
       <c r="A92" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__17Y</v>
       </c>
       <c r="B92" s="5" t="s">
@@ -4354,11 +4368,11 @@
         <v>51</v>
       </c>
       <c r="H92" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I92" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I92" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J92" s="5" t="s">
@@ -4373,7 +4387,7 @@
     </row>
     <row r="93" spans="1:12">
       <c r="A93" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__18Y</v>
       </c>
       <c r="B93" s="5" t="s">
@@ -4395,11 +4409,11 @@
         <v>51</v>
       </c>
       <c r="H93" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I93" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I93" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J93" s="5" t="s">
@@ -4414,7 +4428,7 @@
     </row>
     <row r="94" spans="1:12">
       <c r="A94" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__19Y</v>
       </c>
       <c r="B94" s="5" t="s">
@@ -4436,11 +4450,11 @@
         <v>51</v>
       </c>
       <c r="H94" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I94" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I94" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J94" s="5" t="s">
@@ -4455,7 +4469,7 @@
     </row>
     <row r="95" spans="1:12">
       <c r="A95" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__20Y</v>
       </c>
       <c r="B95" s="5" t="s">
@@ -4477,11 +4491,11 @@
         <v>51</v>
       </c>
       <c r="H95" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I95" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I95" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J95" s="5" t="s">
@@ -4496,7 +4510,7 @@
     </row>
     <row r="96" spans="1:12">
       <c r="A96" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__25Y</v>
       </c>
       <c r="B96" s="5" t="s">
@@ -4518,11 +4532,11 @@
         <v>51</v>
       </c>
       <c r="H96" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I96" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I96" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J96" s="5" t="s">
@@ -4537,7 +4551,7 @@
     </row>
     <row r="97" spans="1:12">
       <c r="A97" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__30Y</v>
       </c>
       <c r="B97" s="5" t="s">
@@ -4559,11 +4573,11 @@
         <v>51</v>
       </c>
       <c r="H97" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I97" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I97" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J97" s="5" t="s">
@@ -4578,7 +4592,7 @@
     </row>
     <row r="98" spans="1:12">
       <c r="A98" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__35Y</v>
       </c>
       <c r="B98" s="5" t="s">
@@ -4600,11 +4614,11 @@
         <v>51</v>
       </c>
       <c r="H98" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I98" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I98" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J98" s="5" t="s">
@@ -4619,7 +4633,7 @@
     </row>
     <row r="99" spans="1:12">
       <c r="A99" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__40Y</v>
       </c>
       <c r="B99" s="5" t="s">
@@ -4641,11 +4655,11 @@
         <v>51</v>
       </c>
       <c r="H99" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I99" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I99" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J99" s="5" t="s">
@@ -4660,7 +4674,7 @@
     </row>
     <row r="100" spans="1:12">
       <c r="A100" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__45Y</v>
       </c>
       <c r="B100" s="5" t="s">
@@ -4682,11 +4696,11 @@
         <v>51</v>
       </c>
       <c r="H100" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I100" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I100" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J100" s="5" t="s">
@@ -4701,7 +4715,7 @@
     </row>
     <row r="101" spans="1:12">
       <c r="A101" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__50Y</v>
       </c>
       <c r="B101" s="5" t="s">
@@ -4723,11 +4737,11 @@
         <v>51</v>
       </c>
       <c r="H101" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I101" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I101" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J101" s="5" t="s">
@@ -4742,7 +4756,7 @@
     </row>
     <row r="102" spans="1:12">
       <c r="A102" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__60Y</v>
       </c>
       <c r="B102" s="5" t="s">
@@ -4764,11 +4778,11 @@
         <v>51</v>
       </c>
       <c r="H102" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I102" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I102" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J102" s="5" t="s">
@@ -4783,7 +4797,7 @@
     </row>
     <row r="103" spans="1:12">
       <c r="A103" s="7" t="str">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>USDLIBOR6M__BasisSwap__70Y</v>
       </c>
       <c r="B103" s="5" t="s">
@@ -4805,11 +4819,11 @@
         <v>51</v>
       </c>
       <c r="H103" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>USDLIBOR3M</v>
+      </c>
+      <c r="I103" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR3M</v>
-      </c>
-      <c r="I103" s="5" t="str">
-        <f t="shared" si="7"/>
         <v>USDLIBOR6M</v>
       </c>
       <c r="J103" s="5" t="s">
@@ -4848,10 +4862,10 @@
       <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.08984375" style="6" customWidth="1"/>
+    <col min="2" max="2" width="15.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">

--- a/engine_test.xlsx
+++ b/engine_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="985" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="986" uniqueCount="74">
   <si>
     <t>3M</t>
   </si>
@@ -237,6 +237,9 @@
   </si>
   <si>
     <t>Convention Right</t>
+  </si>
+  <si>
+    <t>Solve Stage</t>
   </si>
 </sst>
 </file>
@@ -335,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -345,6 +348,12 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -641,7 +650,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
     </sheetView>
@@ -4856,47 +4865,60 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16" style="4" customWidth="1"/>
-    <col min="2" max="2" width="15.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.140625" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
         <v>64</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="10">
+        <v>1</v>
+      </c>
+      <c r="C2" s="6" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="10">
+        <v>2</v>
+      </c>
+      <c r="C3" s="6" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="B4" s="6" t="s">
+      <c r="B4" s="10">
+        <v>1</v>
+      </c>
+      <c r="C4" s="6" t="s">
         <v>62</v>
       </c>
     </row>

--- a/engine_test.xlsx
+++ b/engine_test.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
@@ -119,9 +119,6 @@
     <t>70Y</t>
   </si>
   <si>
-    <t>1B</t>
-  </si>
-  <si>
     <t>7Y</t>
   </si>
   <si>
@@ -173,9 +170,6 @@
     <t>TermDeposit</t>
   </si>
   <si>
-    <t>na</t>
-  </si>
-  <si>
     <t>Name</t>
   </si>
   <si>
@@ -240,6 +234,12 @@
   </si>
   <si>
     <t>Solve Stage</t>
+  </si>
+  <si>
+    <t>1D</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
 </sst>
 </file>
@@ -650,9 +650,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L103"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,40 +674,40 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="3" t="s">
         <v>55</v>
-      </c>
-      <c r="L1" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -716,29 +716,29 @@
         <v>USDLIBOR3M__Deposit__3M</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="shared" ref="H2:H15" si="0">D2</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
@@ -747,7 +747,7 @@
         <v>0</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -756,29 +756,29 @@
         <v>USDLIBOR3M__Future__1F_3M</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>3</v>
@@ -787,7 +787,7 @@
         <v>0</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -796,29 +796,29 @@
         <v>USDLIBOR3M__Future__2F_3M</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>4</v>
@@ -827,7 +827,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -836,29 +836,29 @@
         <v>USDLIBOR3M__Future__3F_3M</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>5</v>
@@ -867,7 +867,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -876,29 +876,29 @@
         <v>USDLIBOR3M__Future__4F_3M</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>6</v>
@@ -907,7 +907,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:12">
@@ -916,29 +916,29 @@
         <v>USDLIBOR3M__Future__5F_3M</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>7</v>
@@ -947,7 +947,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -956,29 +956,29 @@
         <v>USDLIBOR3M__Future__6F_3M</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>8</v>
@@ -987,7 +987,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -996,29 +996,29 @@
         <v>USDLIBOR3M__Future__7F_3M</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>9</v>
@@ -1027,7 +1027,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:12">
@@ -1036,29 +1036,29 @@
         <v>USDLIBOR3M__Future__8F_3M</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>10</v>
@@ -1067,7 +1067,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:12">
@@ -1076,29 +1076,29 @@
         <v>USDLIBOR3M__Future__9F_3M</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>11</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:12">
@@ -1116,29 +1116,29 @@
         <v>USDLIBOR3M__Future__10F_3M</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1147,7 +1147,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1156,29 +1156,29 @@
         <v>USDLIBOR3M__Future__11F_3M</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>13</v>
@@ -1187,7 +1187,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" spans="1:12">
@@ -1196,29 +1196,29 @@
         <v>USDLIBOR3M__Future__12F_3M</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>14</v>
@@ -1227,7 +1227,7 @@
         <v>0</v>
       </c>
       <c r="L14" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" spans="1:12">
@@ -1236,29 +1236,29 @@
         <v>USDLIBOR3M__Future__13F_3M</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>15</v>
@@ -1267,7 +1267,7 @@
         <v>0</v>
       </c>
       <c r="L15" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1276,22 +1276,22 @@
         <v>USDLIBOR3M__Swap__4Y</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" ref="H16:H47" si="2">D16</f>
@@ -1308,7 +1308,7 @@
         <v>18</v>
       </c>
       <c r="L16" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" spans="1:12">
@@ -1317,22 +1317,22 @@
         <v>USDLIBOR3M__Swap__5Y</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1349,7 +1349,7 @@
         <v>19</v>
       </c>
       <c r="L17" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" spans="1:12">
@@ -1358,22 +1358,22 @@
         <v>USDLIBOR3M__Swap__6Y</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1390,7 +1390,7 @@
         <v>20</v>
       </c>
       <c r="L18" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="19" spans="1:12">
@@ -1399,22 +1399,22 @@
         <v>USDLIBOR3M__Swap__7Y</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1428,10 +1428,10 @@
         <v>16</v>
       </c>
       <c r="K19" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L19" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:12">
@@ -1440,22 +1440,22 @@
         <v>USDLIBOR3M__Swap__8Y</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1472,7 +1472,7 @@
         <v>21</v>
       </c>
       <c r="L20" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" spans="1:12">
@@ -1481,22 +1481,22 @@
         <v>USDLIBOR3M__Swap__9Y</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1510,10 +1510,10 @@
         <v>16</v>
       </c>
       <c r="K21" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L21" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" spans="1:12">
@@ -1522,22 +1522,22 @@
         <v>USDLIBOR3M__Swap__10Y</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1554,7 +1554,7 @@
         <v>22</v>
       </c>
       <c r="L22" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="23" spans="1:12">
@@ -1563,22 +1563,22 @@
         <v>USDLIBOR3M__Swap__11Y</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1592,10 +1592,10 @@
         <v>16</v>
       </c>
       <c r="K23" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L23" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="24" spans="1:12">
@@ -1604,22 +1604,22 @@
         <v>USDLIBOR3M__Swap__12Y</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1633,10 +1633,10 @@
         <v>16</v>
       </c>
       <c r="K24" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L24" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:12">
@@ -1645,22 +1645,22 @@
         <v>USDLIBOR3M__Swap__13Y</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1674,10 +1674,10 @@
         <v>16</v>
       </c>
       <c r="K25" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L25" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" spans="1:12">
@@ -1686,22 +1686,22 @@
         <v>USDLIBOR3M__Swap__14Y</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1715,10 +1715,10 @@
         <v>16</v>
       </c>
       <c r="K26" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L26" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:12">
@@ -1727,22 +1727,22 @@
         <v>USDLIBOR3M__Swap__15Y</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1759,7 +1759,7 @@
         <v>23</v>
       </c>
       <c r="L27" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="28" spans="1:12">
@@ -1768,22 +1768,22 @@
         <v>USDLIBOR3M__Swap__16Y</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1797,10 +1797,10 @@
         <v>16</v>
       </c>
       <c r="K28" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L28" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="29" spans="1:12">
@@ -1809,22 +1809,22 @@
         <v>USDLIBOR3M__Swap__17Y</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1838,10 +1838,10 @@
         <v>16</v>
       </c>
       <c r="K29" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L29" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="30" spans="1:12">
@@ -1850,22 +1850,22 @@
         <v>USDLIBOR3M__Swap__18Y</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1879,10 +1879,10 @@
         <v>16</v>
       </c>
       <c r="K30" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L30" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="1:12">
@@ -1891,22 +1891,22 @@
         <v>USDLIBOR3M__Swap__19Y</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1920,10 +1920,10 @@
         <v>16</v>
       </c>
       <c r="K31" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L31" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="32" spans="1:12">
@@ -1932,22 +1932,22 @@
         <v>USDLIBOR3M__Swap__20Y</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="2"/>
@@ -1964,7 +1964,7 @@
         <v>24</v>
       </c>
       <c r="L32" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="33" spans="1:12">
@@ -1973,22 +1973,22 @@
         <v>USDLIBOR3M__Swap__25Y</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H33" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2005,7 +2005,7 @@
         <v>25</v>
       </c>
       <c r="L33" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="34" spans="1:12">
@@ -2014,22 +2014,22 @@
         <v>USDLIBOR3M__Swap__30Y</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H34" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2046,7 +2046,7 @@
         <v>26</v>
       </c>
       <c r="L34" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="35" spans="1:12">
@@ -2055,22 +2055,22 @@
         <v>USDLIBOR3M__Swap__35Y</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2087,7 +2087,7 @@
         <v>27</v>
       </c>
       <c r="L35" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="36" spans="1:12">
@@ -2096,22 +2096,22 @@
         <v>USDLIBOR3M__Swap__40Y</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2128,7 +2128,7 @@
         <v>28</v>
       </c>
       <c r="L36" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="37" spans="1:12">
@@ -2137,22 +2137,22 @@
         <v>USDLIBOR3M__Swap__45Y</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2169,7 +2169,7 @@
         <v>29</v>
       </c>
       <c r="L37" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="38" spans="1:12">
@@ -2178,22 +2178,22 @@
         <v>USDLIBOR3M__Swap__50Y</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H38" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2210,7 +2210,7 @@
         <v>30</v>
       </c>
       <c r="L38" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="39" spans="1:12">
@@ -2219,22 +2219,22 @@
         <v>USDLIBOR3M__Swap__60Y</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H39" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2251,7 +2251,7 @@
         <v>31</v>
       </c>
       <c r="L39" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="40" spans="1:12">
@@ -2260,22 +2260,22 @@
         <v>USDLIBOR3M__Swap__70Y</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H40" s="5" t="str">
         <f t="shared" si="2"/>
@@ -2292,47 +2292,47 @@
         <v>32</v>
       </c>
       <c r="L40" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="7" t="str">
         <f>CONCATENATE(B41,"__TermDeposit__",K41)</f>
-        <v>USD-USDOIS__TermDeposit__1B</v>
+        <v>USD-USDOIS__TermDeposit__1D</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C41" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>33</v>
+        <v>72</v>
       </c>
       <c r="L41" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="42" spans="1:12">
@@ -2341,38 +2341,38 @@
         <v>USD-USDOIS__TermDeposit__1M</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H42" s="5" t="str">
         <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K42" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="L42" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="43" spans="1:12">
@@ -2381,38 +2381,38 @@
         <v>USD-USDOIS__TermDeposit__2M</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C43" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H43" s="5" t="str">
         <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K43" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="L43" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="44" spans="1:12">
@@ -2421,29 +2421,29 @@
         <v>USD-USDOIS__TermDeposit__3M</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H44" s="5" t="str">
         <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>16</v>
@@ -2452,7 +2452,7 @@
         <v>0</v>
       </c>
       <c r="L44" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="45" spans="1:12">
@@ -2461,38 +2461,38 @@
         <v>USD-USDOIS__TermDeposit__6M</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C45" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H45" s="5" t="str">
         <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K45" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L45" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="46" spans="1:12">
@@ -2501,38 +2501,38 @@
         <v>USD-USDOIS__TermDeposit__1Y</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K46" s="5" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L46" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="47" spans="1:12">
@@ -2541,38 +2541,38 @@
         <v>USD-USDOIS__TermDeposit__2Y</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C47" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="2"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K47" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L47" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="48" spans="1:12">
@@ -2581,38 +2581,38 @@
         <v>USD-USDOIS__TermDeposit__3Y</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" ref="H48:H79" si="6">D48</f>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K48" s="5" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L48" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="49" spans="1:12">
@@ -2621,29 +2621,29 @@
         <v>USD-USDOIS__TermDeposit__4Y</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C49" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>16</v>
@@ -2652,7 +2652,7 @@
         <v>18</v>
       </c>
       <c r="L49" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="50" spans="1:12">
@@ -2661,29 +2661,29 @@
         <v>USD-USDOIS__TermDeposit__5Y</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C50" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>16</v>
@@ -2692,7 +2692,7 @@
         <v>19</v>
       </c>
       <c r="L50" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="51" spans="1:12">
@@ -2701,29 +2701,29 @@
         <v>USD-USDOIS__TermDeposit__6Y</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C51" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>16</v>
@@ -2732,7 +2732,7 @@
         <v>20</v>
       </c>
       <c r="L51" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="52" spans="1:12">
@@ -2741,38 +2741,38 @@
         <v>USD-USDOIS__TermDeposit__7Y</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C52" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K52" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L52" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53" spans="1:12">
@@ -2781,29 +2781,29 @@
         <v>USD-USDOIS__TermDeposit__8Y</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C53" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>16</v>
@@ -2812,7 +2812,7 @@
         <v>21</v>
       </c>
       <c r="L53" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="54" spans="1:12">
@@ -2821,38 +2821,38 @@
         <v>USD-USDOIS__TermDeposit__9Y</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C54" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K54" s="5" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L54" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="55" spans="1:12">
@@ -2861,29 +2861,29 @@
         <v>USD-USDOIS__TermDeposit__10Y</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C55" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>16</v>
@@ -2892,7 +2892,7 @@
         <v>22</v>
       </c>
       <c r="L55" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="56" spans="1:12">
@@ -2901,38 +2901,38 @@
         <v>USD-USDOIS__TermDeposit__11Y</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C56" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K56" s="5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L56" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="57" spans="1:12">
@@ -2941,38 +2941,38 @@
         <v>USD-USDOIS__TermDeposit__12Y</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C57" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H57" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K57" s="5" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L57" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="58" spans="1:12">
@@ -2981,38 +2981,38 @@
         <v>USD-USDOIS__TermDeposit__13Y</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C58" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H58" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K58" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L58" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="59" spans="1:12">
@@ -3021,38 +3021,38 @@
         <v>USD-USDOIS__TermDeposit__14Y</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C59" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H59" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K59" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L59" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="60" spans="1:12">
@@ -3061,29 +3061,29 @@
         <v>USD-USDOIS__TermDeposit__15Y</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C60" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H60" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>16</v>
@@ -3092,7 +3092,7 @@
         <v>23</v>
       </c>
       <c r="L60" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:12">
@@ -3101,38 +3101,38 @@
         <v>USD-USDOIS__TermDeposit__16Y</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C61" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H61" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K61" s="5" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L61" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:12">
@@ -3141,38 +3141,38 @@
         <v>USD-USDOIS__TermDeposit__17Y</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C62" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H62" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K62" s="5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L62" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:12">
@@ -3181,38 +3181,38 @@
         <v>USD-USDOIS__TermDeposit__18Y</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C63" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H63" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K63" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L63" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="64" spans="1:12">
@@ -3221,38 +3221,38 @@
         <v>USD-USDOIS__TermDeposit__19Y</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C64" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K64" s="5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L64" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:12">
@@ -3261,29 +3261,29 @@
         <v>USD-USDOIS__TermDeposit__20Y</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C65" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>16</v>
@@ -3292,7 +3292,7 @@
         <v>24</v>
       </c>
       <c r="L65" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:12">
@@ -3301,29 +3301,29 @@
         <v>USD-USDOIS__TermDeposit__25Y</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C66" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>16</v>
@@ -3332,7 +3332,7 @@
         <v>25</v>
       </c>
       <c r="L66" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="67" spans="1:12">
@@ -3341,29 +3341,29 @@
         <v>USD-USDOIS__TermDeposit__30Y</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C67" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>16</v>
@@ -3372,7 +3372,7 @@
         <v>26</v>
       </c>
       <c r="L67" s="6" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="68" spans="1:12">
@@ -3381,29 +3381,29 @@
         <v>USD-USDOIS__TermDeposit__35Y</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C68" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>16</v>
@@ -3412,7 +3412,7 @@
         <v>27</v>
       </c>
       <c r="L68" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:12">
@@ -3421,29 +3421,29 @@
         <v>USD-USDOIS__TermDeposit__40Y</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C69" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>16</v>
@@ -3452,7 +3452,7 @@
         <v>28</v>
       </c>
       <c r="L69" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="70" spans="1:12">
@@ -3461,29 +3461,29 @@
         <v>USD-USDOIS__TermDeposit__45Y</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C70" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>16</v>
@@ -3492,7 +3492,7 @@
         <v>29</v>
       </c>
       <c r="L70" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="71" spans="1:12">
@@ -3501,29 +3501,29 @@
         <v>USD-USDOIS__TermDeposit__50Y</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C71" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H71" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>16</v>
@@ -3532,7 +3532,7 @@
         <v>30</v>
       </c>
       <c r="L71" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="72" spans="1:12">
@@ -3541,29 +3541,29 @@
         <v>USD-USDOIS__TermDeposit__60Y</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C72" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H72" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>16</v>
@@ -3572,7 +3572,7 @@
         <v>31</v>
       </c>
       <c r="L72" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:12">
@@ -3581,29 +3581,29 @@
         <v>USD-USDOIS__TermDeposit__70Y</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C73" s="5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H73" s="5" t="str">
         <f t="shared" si="6"/>
         <v>USDLIBOR3M</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>16</v>
@@ -3612,7 +3612,7 @@
         <v>32</v>
       </c>
       <c r="L73" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="74" spans="1:12">
@@ -3621,22 +3621,22 @@
         <v>USDLIBOR6M__BasisSwap__3M</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C74" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H74" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3653,7 +3653,7 @@
         <v>0</v>
       </c>
       <c r="L74" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="75" spans="1:12">
@@ -3662,22 +3662,22 @@
         <v>USDLIBOR6M__BasisSwap__6M</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C75" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H75" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3691,10 +3691,10 @@
         <v>16</v>
       </c>
       <c r="K75" s="5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="L75" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="76" spans="1:12">
@@ -3703,22 +3703,22 @@
         <v>USDLIBOR6M__BasisSwap__1Y</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C76" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H76" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3732,10 +3732,10 @@
         <v>16</v>
       </c>
       <c r="K76" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="L76" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="77" spans="1:12">
@@ -3744,22 +3744,22 @@
         <v>USDLIBOR6M__BasisSwap__2Y</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C77" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H77" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3773,10 +3773,10 @@
         <v>16</v>
       </c>
       <c r="K77" s="8" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="L77" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="78" spans="1:12">
@@ -3785,22 +3785,22 @@
         <v>USDLIBOR6M__BasisSwap__3Y</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C78" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H78" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3814,10 +3814,10 @@
         <v>16</v>
       </c>
       <c r="K78" s="8" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="L78" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="79" spans="1:12">
@@ -3826,22 +3826,22 @@
         <v>USDLIBOR6M__BasisSwap__4Y</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C79" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H79" s="5" t="str">
         <f t="shared" si="6"/>
@@ -3858,7 +3858,7 @@
         <v>18</v>
       </c>
       <c r="L79" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="80" spans="1:12">
@@ -3867,22 +3867,22 @@
         <v>USDLIBOR6M__BasisSwap__5Y</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C80" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H80" s="5" t="str">
         <f t="shared" ref="H80:H103" si="9">D80</f>
@@ -3899,7 +3899,7 @@
         <v>19</v>
       </c>
       <c r="L80" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="81" spans="1:12">
@@ -3908,22 +3908,22 @@
         <v>USDLIBOR6M__BasisSwap__6Y</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C81" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H81" s="5" t="str">
         <f t="shared" si="9"/>
@@ -3940,7 +3940,7 @@
         <v>20</v>
       </c>
       <c r="L81" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="82" spans="1:12">
@@ -3949,22 +3949,22 @@
         <v>USDLIBOR6M__BasisSwap__7Y</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C82" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H82" s="5" t="str">
         <f t="shared" si="9"/>
@@ -3978,10 +3978,10 @@
         <v>16</v>
       </c>
       <c r="K82" s="8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="L82" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="83" spans="1:12">
@@ -3990,22 +3990,22 @@
         <v>USDLIBOR6M__BasisSwap__8Y</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C83" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H83" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4022,7 +4022,7 @@
         <v>21</v>
       </c>
       <c r="L83" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="84" spans="1:12">
@@ -4031,22 +4031,22 @@
         <v>USDLIBOR6M__BasisSwap__9Y</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C84" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H84" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4060,10 +4060,10 @@
         <v>16</v>
       </c>
       <c r="K84" s="8" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="L84" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="85" spans="1:12">
@@ -4072,22 +4072,22 @@
         <v>USDLIBOR6M__BasisSwap__10Y</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C85" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H85" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4104,7 +4104,7 @@
         <v>22</v>
       </c>
       <c r="L85" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:12">
@@ -4113,22 +4113,22 @@
         <v>USDLIBOR6M__BasisSwap__11Y</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C86" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H86" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4142,10 +4142,10 @@
         <v>16</v>
       </c>
       <c r="K86" s="8" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="L86" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="87" spans="1:12">
@@ -4154,22 +4154,22 @@
         <v>USDLIBOR6M__BasisSwap__12Y</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C87" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H87" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4183,10 +4183,10 @@
         <v>16</v>
       </c>
       <c r="K87" s="8" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="L87" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="88" spans="1:12">
@@ -4195,22 +4195,22 @@
         <v>USDLIBOR6M__BasisSwap__13Y</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C88" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H88" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4224,10 +4224,10 @@
         <v>16</v>
       </c>
       <c r="K88" s="8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="L88" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89" spans="1:12">
@@ -4236,22 +4236,22 @@
         <v>USDLIBOR6M__BasisSwap__14Y</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C89" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H89" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4265,10 +4265,10 @@
         <v>16</v>
       </c>
       <c r="K89" s="8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="L89" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="90" spans="1:12">
@@ -4277,22 +4277,22 @@
         <v>USDLIBOR6M__BasisSwap__15Y</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C90" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H90" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4309,7 +4309,7 @@
         <v>23</v>
       </c>
       <c r="L90" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="91" spans="1:12">
@@ -4318,22 +4318,22 @@
         <v>USDLIBOR6M__BasisSwap__16Y</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C91" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H91" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4347,10 +4347,10 @@
         <v>16</v>
       </c>
       <c r="K91" s="8" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="L91" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="92" spans="1:12">
@@ -4359,22 +4359,22 @@
         <v>USDLIBOR6M__BasisSwap__17Y</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C92" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H92" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4388,10 +4388,10 @@
         <v>16</v>
       </c>
       <c r="K92" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="L92" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="93" spans="1:12">
@@ -4400,22 +4400,22 @@
         <v>USDLIBOR6M__BasisSwap__18Y</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C93" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H93" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4429,10 +4429,10 @@
         <v>16</v>
       </c>
       <c r="K93" s="8" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="L93" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="94" spans="1:12">
@@ -4441,22 +4441,22 @@
         <v>USDLIBOR6M__BasisSwap__19Y</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C94" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H94" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4470,10 +4470,10 @@
         <v>16</v>
       </c>
       <c r="K94" s="8" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="L94" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="95" spans="1:12">
@@ -4482,22 +4482,22 @@
         <v>USDLIBOR6M__BasisSwap__20Y</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C95" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H95" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4514,7 +4514,7 @@
         <v>24</v>
       </c>
       <c r="L95" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="96" spans="1:12">
@@ -4523,22 +4523,22 @@
         <v>USDLIBOR6M__BasisSwap__25Y</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C96" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H96" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4555,7 +4555,7 @@
         <v>25</v>
       </c>
       <c r="L96" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="97" spans="1:12">
@@ -4564,22 +4564,22 @@
         <v>USDLIBOR6M__BasisSwap__30Y</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C97" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H97" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4596,7 +4596,7 @@
         <v>26</v>
       </c>
       <c r="L97" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="98" spans="1:12">
@@ -4605,22 +4605,22 @@
         <v>USDLIBOR6M__BasisSwap__35Y</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C98" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H98" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4637,7 +4637,7 @@
         <v>27</v>
       </c>
       <c r="L98" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="99" spans="1:12">
@@ -4646,22 +4646,22 @@
         <v>USDLIBOR6M__BasisSwap__40Y</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C99" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4678,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="L99" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:12">
@@ -4687,22 +4687,22 @@
         <v>USDLIBOR6M__BasisSwap__45Y</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C100" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H100" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4719,7 +4719,7 @@
         <v>29</v>
       </c>
       <c r="L100" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="101" spans="1:12">
@@ -4728,22 +4728,22 @@
         <v>USDLIBOR6M__BasisSwap__50Y</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C101" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4760,7 +4760,7 @@
         <v>30</v>
       </c>
       <c r="L101" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="102" spans="1:12">
@@ -4769,22 +4769,22 @@
         <v>USDLIBOR6M__BasisSwap__60Y</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C102" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H102" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4801,7 +4801,7 @@
         <v>31</v>
       </c>
       <c r="L102" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="103" spans="1:12">
@@ -4810,22 +4810,22 @@
         <v>USDLIBOR6M__BasisSwap__70Y</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C103" s="5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>51</v>
+        <v>73</v>
       </c>
       <c r="H103" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4842,7 +4842,7 @@
         <v>32</v>
       </c>
       <c r="L103" s="6" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
   </sheetData>
@@ -4867,7 +4867,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -4880,46 +4880,46 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" s="9" t="s">
+        <v>71</v>
+      </c>
+      <c r="C1" s="3" t="s">
         <v>56</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="4" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="4" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="4" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>

--- a/engine_test.xlsx
+++ b/engine_test.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{431AA396-CF69-49CB-A9D2-620E2C5BDF77}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="135" windowWidth="13920" windowHeight="4950"/>
+    <workbookView xWindow="0" yWindow="132" windowWidth="13920" windowHeight="4956" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Instrument Properties" sheetId="1" r:id="rId1"/>
@@ -13,7 +14,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Instrument Properties'!$C$1:$L$45</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
@@ -206,15 +207,6 @@
     <t>LINEAR_CCZR</t>
   </si>
   <si>
-    <t>USDLIBOR3M</t>
-  </si>
-  <si>
-    <t>USDLIBOR6M</t>
-  </si>
-  <si>
-    <t>USD-USDOIS</t>
-  </si>
-  <si>
     <t>Forecast Curve Left</t>
   </si>
   <si>
@@ -240,13 +232,22 @@
   </si>
   <si>
     <t>null</t>
+  </si>
+  <si>
+    <t>USD.LIBOR.3M</t>
+  </si>
+  <si>
+    <t>USD.LIBOR.6M</t>
+  </si>
+  <si>
+    <t>USD/USD.OIS</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -360,6 +361,14 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -406,7 +415,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -438,9 +447,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -472,6 +499,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -647,32 +692,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L103"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A86" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B13" sqref="B13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="45.85546875" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="24.42578125" style="5" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.140625" style="5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="21.7109375" style="5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.28515625" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.88671875" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.44140625" style="5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="21.6640625" style="5" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="26" style="5" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" style="5" customWidth="1"/>
-    <col min="9" max="9" width="19.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="7.28515625" style="5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="9.7109375" style="5" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="18.109375" style="5" customWidth="1"/>
+    <col min="9" max="9" width="19.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="7.33203125" style="5" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.6640625" style="5" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="8.5703125" customWidth="1"/>
+    <col min="13" max="13" width="8.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -683,22 +728,22 @@
         <v>51</v>
       </c>
       <c r="D1" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="G1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>67</v>
-      </c>
-      <c r="G1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>70</v>
       </c>
       <c r="J1" s="2" t="s">
         <v>52</v>
@@ -710,35 +755,35 @@
         <v>55</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="str">
         <f>CONCATENATE(B2,"__Deposit__3M")</f>
-        <v>USDLIBOR3M__Deposit__3M</v>
+        <v>USD.LIBOR.3M__Deposit__3M</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C2" s="5" t="s">
         <v>1</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H2" s="5" t="str">
         <f t="shared" ref="H2:H15" si="0">D2</f>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I2" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J2" s="5" t="s">
         <v>16</v>
@@ -750,35 +795,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="str">
         <f>CONCATENATE(B3,"__Future__",J3,"_",K3)</f>
-        <v>USDLIBOR3M__Future__1F_3M</v>
+        <v>USD.LIBOR.3M__Future__1F_3M</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C3" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H3" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I3" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J3" s="5" t="s">
         <v>3</v>
@@ -790,35 +835,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="str">
         <f t="shared" ref="A4:A15" si="1">CONCATENATE(B4,"__Future__",J4,"_",K4)</f>
-        <v>USDLIBOR3M__Future__2F_3M</v>
+        <v>USD.LIBOR.3M__Future__2F_3M</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C4" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H4" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J4" s="5" t="s">
         <v>4</v>
@@ -830,35 +875,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__3F_3M</v>
+        <v>USD.LIBOR.3M__Future__3F_3M</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C5" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H5" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J5" s="5" t="s">
         <v>5</v>
@@ -870,35 +915,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__4F_3M</v>
+        <v>USD.LIBOR.3M__Future__4F_3M</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H6" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J6" s="5" t="s">
         <v>6</v>
@@ -910,35 +955,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__5F_3M</v>
+        <v>USD.LIBOR.3M__Future__5F_3M</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H7" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I7" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J7" s="5" t="s">
         <v>7</v>
@@ -950,35 +995,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__6F_3M</v>
+        <v>USD.LIBOR.3M__Future__6F_3M</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H8" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J8" s="5" t="s">
         <v>8</v>
@@ -990,35 +1035,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__7F_3M</v>
+        <v>USD.LIBOR.3M__Future__7F_3M</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H9" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J9" s="5" t="s">
         <v>9</v>
@@ -1030,35 +1075,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__8F_3M</v>
+        <v>USD.LIBOR.3M__Future__8F_3M</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C10" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H10" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J10" s="5" t="s">
         <v>10</v>
@@ -1070,35 +1115,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__9F_3M</v>
+        <v>USD.LIBOR.3M__Future__9F_3M</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C11" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H11" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J11" s="5" t="s">
         <v>11</v>
@@ -1110,35 +1155,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__10F_3M</v>
+        <v>USD.LIBOR.3M__Future__10F_3M</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C12" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H12" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I12" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>12</v>
@@ -1150,35 +1195,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__11F_3M</v>
+        <v>USD.LIBOR.3M__Future__11F_3M</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C13" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H13" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I13" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J13" s="5" t="s">
         <v>13</v>
@@ -1190,35 +1235,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__12F_3M</v>
+        <v>USD.LIBOR.3M__Future__12F_3M</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C14" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H14" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J14" s="5" t="s">
         <v>14</v>
@@ -1230,35 +1275,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="str">
         <f t="shared" si="1"/>
-        <v>USDLIBOR3M__Future__13F_3M</v>
+        <v>USD.LIBOR.3M__Future__13F_3M</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C15" s="5" t="s">
         <v>2</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H15" s="5" t="str">
         <f t="shared" si="0"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>15</v>
@@ -1270,36 +1315,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" s="4" t="str">
         <f>CONCATENATE(B16,"__Swap__",K16)</f>
-        <v>USDLIBOR3M__Swap__4Y</v>
+        <v>USD.LIBOR.3M__Swap__4Y</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C16" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G16" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H16" s="5" t="str">
         <f t="shared" ref="H16:H47" si="2">D16</f>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I16" s="5" t="str">
         <f>D16</f>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J16" s="5" t="s">
         <v>16</v>
@@ -1311,36 +1356,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:12">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="str">
         <f t="shared" ref="A17:A40" si="3">CONCATENATE(B17,"__Swap__",K17)</f>
-        <v>USDLIBOR3M__Swap__5Y</v>
+        <v>USD.LIBOR.3M__Swap__5Y</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C17" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G17" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H17" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I17" s="5" t="str">
         <f t="shared" ref="I17:I40" si="4">D17</f>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J17" s="5" t="s">
         <v>16</v>
@@ -1352,36 +1397,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:12">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__6Y</v>
+        <v>USD.LIBOR.3M__Swap__6Y</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C18" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G18" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H18" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I18" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J18" s="5" t="s">
         <v>16</v>
@@ -1393,36 +1438,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:12">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__7Y</v>
+        <v>USD.LIBOR.3M__Swap__7Y</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G19" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H19" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I19" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J19" s="5" t="s">
         <v>16</v>
@@ -1434,36 +1479,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:12">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__8Y</v>
+        <v>USD.LIBOR.3M__Swap__8Y</v>
       </c>
       <c r="B20" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C20" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D20" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G20" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H20" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I20" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J20" s="5" t="s">
         <v>16</v>
@@ -1475,36 +1520,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="21" spans="1:12">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__9Y</v>
+        <v>USD.LIBOR.3M__Swap__9Y</v>
       </c>
       <c r="B21" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C21" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D21" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G21" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H21" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I21" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J21" s="5" t="s">
         <v>16</v>
@@ -1516,36 +1561,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="22" spans="1:12">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__10Y</v>
+        <v>USD.LIBOR.3M__Swap__10Y</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C22" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G22" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H22" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I22" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J22" s="5" t="s">
         <v>16</v>
@@ -1557,36 +1602,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="23" spans="1:12">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__11Y</v>
+        <v>USD.LIBOR.3M__Swap__11Y</v>
       </c>
       <c r="B23" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C23" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D23" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E23" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G23" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H23" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I23" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J23" s="5" t="s">
         <v>16</v>
@@ -1598,36 +1643,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="24" spans="1:12">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__12Y</v>
+        <v>USD.LIBOR.3M__Swap__12Y</v>
       </c>
       <c r="B24" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C24" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D24" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E24" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G24" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H24" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I24" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J24" s="5" t="s">
         <v>16</v>
@@ -1639,36 +1684,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:12">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__13Y</v>
+        <v>USD.LIBOR.3M__Swap__13Y</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C25" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G25" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H25" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I25" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J25" s="5" t="s">
         <v>16</v>
@@ -1680,36 +1725,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="26" spans="1:12">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__14Y</v>
+        <v>USD.LIBOR.3M__Swap__14Y</v>
       </c>
       <c r="B26" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C26" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D26" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E26" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G26" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H26" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I26" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J26" s="5" t="s">
         <v>16</v>
@@ -1721,36 +1766,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:12">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__15Y</v>
+        <v>USD.LIBOR.3M__Swap__15Y</v>
       </c>
       <c r="B27" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C27" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D27" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E27" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G27" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H27" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I27" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J27" s="5" t="s">
         <v>16</v>
@@ -1762,36 +1807,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="28" spans="1:12">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__16Y</v>
+        <v>USD.LIBOR.3M__Swap__16Y</v>
       </c>
       <c r="B28" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C28" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D28" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E28" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G28" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H28" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I28" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J28" s="5" t="s">
         <v>16</v>
@@ -1803,36 +1848,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:12">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__17Y</v>
+        <v>USD.LIBOR.3M__Swap__17Y</v>
       </c>
       <c r="B29" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C29" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D29" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E29" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G29" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H29" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I29" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J29" s="5" t="s">
         <v>16</v>
@@ -1844,36 +1889,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="30" spans="1:12">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__18Y</v>
+        <v>USD.LIBOR.3M__Swap__18Y</v>
       </c>
       <c r="B30" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C30" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D30" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E30" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G30" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H30" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I30" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J30" s="5" t="s">
         <v>16</v>
@@ -1885,36 +1930,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="31" spans="1:12">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__19Y</v>
+        <v>USD.LIBOR.3M__Swap__19Y</v>
       </c>
       <c r="B31" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C31" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E31" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G31" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H31" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I31" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J31" s="5" t="s">
         <v>16</v>
@@ -1926,36 +1971,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="32" spans="1:12">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__20Y</v>
+        <v>USD.LIBOR.3M__Swap__20Y</v>
       </c>
       <c r="B32" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C32" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E32" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G32" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H32" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I32" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J32" s="5" t="s">
         <v>16</v>
@@ -1967,36 +2012,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="33" spans="1:12">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A33" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__25Y</v>
+        <v>USD.LIBOR.3M__Swap__25Y</v>
       </c>
       <c r="B33" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C33" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D33" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E33" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G33" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H33" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I33" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J33" s="5" t="s">
         <v>16</v>
@@ -2008,36 +2053,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:12">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A34" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__30Y</v>
+        <v>USD.LIBOR.3M__Swap__30Y</v>
       </c>
       <c r="B34" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C34" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D34" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E34" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G34" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H34" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I34" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J34" s="5" t="s">
         <v>16</v>
@@ -2049,36 +2094,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="35" spans="1:12">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A35" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__35Y</v>
+        <v>USD.LIBOR.3M__Swap__35Y</v>
       </c>
       <c r="B35" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C35" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D35" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E35" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G35" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H35" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I35" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J35" s="5" t="s">
         <v>16</v>
@@ -2090,36 +2135,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="36" spans="1:12">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A36" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__40Y</v>
+        <v>USD.LIBOR.3M__Swap__40Y</v>
       </c>
       <c r="B36" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C36" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D36" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E36" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G36" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H36" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I36" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J36" s="5" t="s">
         <v>16</v>
@@ -2131,36 +2176,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="37" spans="1:12">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A37" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__45Y</v>
+        <v>USD.LIBOR.3M__Swap__45Y</v>
       </c>
       <c r="B37" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C37" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D37" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E37" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G37" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H37" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I37" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J37" s="5" t="s">
         <v>16</v>
@@ -2172,36 +2217,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:12">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A38" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__50Y</v>
+        <v>USD.LIBOR.3M__Swap__50Y</v>
       </c>
       <c r="B38" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C38" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D38" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E38" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G38" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H38" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I38" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J38" s="5" t="s">
         <v>16</v>
@@ -2213,36 +2258,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:12">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A39" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__60Y</v>
+        <v>USD.LIBOR.3M__Swap__60Y</v>
       </c>
       <c r="B39" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C39" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D39" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E39" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G39" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H39" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I39" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J39" s="5" t="s">
         <v>16</v>
@@ -2254,36 +2299,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:12">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A40" s="4" t="str">
         <f t="shared" si="3"/>
-        <v>USDLIBOR3M__Swap__70Y</v>
+        <v>USD.LIBOR.3M__Swap__70Y</v>
       </c>
       <c r="B40" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="C40" s="5" t="s">
         <v>17</v>
       </c>
       <c r="D40" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E40" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G40" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H40" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I40" s="5" t="str">
         <f t="shared" si="4"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="J40" s="5" t="s">
         <v>16</v>
@@ -2295,75 +2340,75 @@
         <v>57</v>
       </c>
     </row>
-    <row r="41" spans="1:12">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A41" s="7" t="str">
         <f>CONCATENATE(B41,"__TermDeposit__",K41)</f>
-        <v>USD-USDOIS__TermDeposit__1D</v>
+        <v>USD/USD.OIS__TermDeposit__1D</v>
       </c>
       <c r="B41" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C41" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D41" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E41" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G41" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H41" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I41" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J41" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K41" s="5" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="L41" s="6" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="42" spans="1:12">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A42" s="7" t="str">
         <f t="shared" ref="A42:A73" si="5">CONCATENATE(B42,"__TermDeposit__",K42)</f>
-        <v>USD-USDOIS__TermDeposit__1M</v>
+        <v>USD/USD.OIS__TermDeposit__1M</v>
       </c>
       <c r="B42" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C42" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D42" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E42" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G42" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H42" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I42" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>16</v>
@@ -2375,35 +2420,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="43" spans="1:12">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A43" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__2M</v>
+        <v>USD/USD.OIS__TermDeposit__2M</v>
       </c>
       <c r="B43" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C43" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D43" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E43" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G43" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H43" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I43" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J43" s="5" t="s">
         <v>16</v>
@@ -2415,35 +2460,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="44" spans="1:12">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A44" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__3M</v>
+        <v>USD/USD.OIS__TermDeposit__3M</v>
       </c>
       <c r="B44" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C44" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D44" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E44" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G44" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H44" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I44" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J44" s="5" t="s">
         <v>16</v>
@@ -2455,35 +2500,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="45" spans="1:12">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A45" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__6M</v>
+        <v>USD/USD.OIS__TermDeposit__6M</v>
       </c>
       <c r="B45" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C45" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D45" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E45" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G45" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H45" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I45" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J45" s="5" t="s">
         <v>16</v>
@@ -2495,35 +2540,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="46" spans="1:12">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A46" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__1Y</v>
+        <v>USD/USD.OIS__TermDeposit__1Y</v>
       </c>
       <c r="B46" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C46" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D46" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E46" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G46" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H46" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I46" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J46" s="5" t="s">
         <v>16</v>
@@ -2535,35 +2580,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="47" spans="1:12">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A47" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__2Y</v>
+        <v>USD/USD.OIS__TermDeposit__2Y</v>
       </c>
       <c r="B47" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C47" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D47" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E47" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H47" s="5" t="str">
         <f t="shared" si="2"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I47" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J47" s="5" t="s">
         <v>16</v>
@@ -2575,35 +2620,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="48" spans="1:12">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A48" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__3Y</v>
+        <v>USD/USD.OIS__TermDeposit__3Y</v>
       </c>
       <c r="B48" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C48" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D48" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E48" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G48" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H48" s="5" t="str">
         <f t="shared" ref="H48:H79" si="6">D48</f>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I48" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J48" s="5" t="s">
         <v>16</v>
@@ -2615,35 +2660,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="49" spans="1:12">
+    <row r="49" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A49" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__4Y</v>
+        <v>USD/USD.OIS__TermDeposit__4Y</v>
       </c>
       <c r="B49" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C49" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D49" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E49" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G49" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H49" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I49" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J49" s="5" t="s">
         <v>16</v>
@@ -2655,35 +2700,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="50" spans="1:12">
+    <row r="50" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A50" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__5Y</v>
+        <v>USD/USD.OIS__TermDeposit__5Y</v>
       </c>
       <c r="B50" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C50" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D50" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E50" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G50" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H50" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I50" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J50" s="5" t="s">
         <v>16</v>
@@ -2695,35 +2740,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="51" spans="1:12">
+    <row r="51" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A51" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__6Y</v>
+        <v>USD/USD.OIS__TermDeposit__6Y</v>
       </c>
       <c r="B51" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C51" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D51" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E51" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G51" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H51" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I51" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J51" s="5" t="s">
         <v>16</v>
@@ -2735,35 +2780,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="52" spans="1:12">
+    <row r="52" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A52" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__7Y</v>
+        <v>USD/USD.OIS__TermDeposit__7Y</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C52" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D52" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E52" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G52" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H52" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I52" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J52" s="5" t="s">
         <v>16</v>
@@ -2775,35 +2820,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="53" spans="1:12">
+    <row r="53" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A53" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__8Y</v>
+        <v>USD/USD.OIS__TermDeposit__8Y</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C53" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D53" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E53" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G53" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H53" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I53" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J53" s="5" t="s">
         <v>16</v>
@@ -2815,35 +2860,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="54" spans="1:12">
+    <row r="54" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A54" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__9Y</v>
+        <v>USD/USD.OIS__TermDeposit__9Y</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C54" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D54" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E54" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G54" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H54" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I54" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J54" s="5" t="s">
         <v>16</v>
@@ -2855,35 +2900,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="55" spans="1:12">
+    <row r="55" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A55" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__10Y</v>
+        <v>USD/USD.OIS__TermDeposit__10Y</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C55" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D55" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E55" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G55" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H55" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I55" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J55" s="5" t="s">
         <v>16</v>
@@ -2895,35 +2940,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="56" spans="1:12">
+    <row r="56" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A56" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__11Y</v>
+        <v>USD/USD.OIS__TermDeposit__11Y</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C56" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D56" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E56" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G56" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H56" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I56" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J56" s="5" t="s">
         <v>16</v>
@@ -2935,35 +2980,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="57" spans="1:12">
+    <row r="57" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A57" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__12Y</v>
+        <v>USD/USD.OIS__TermDeposit__12Y</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C57" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D57" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E57" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G57" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H57" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I57" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J57" s="5" t="s">
         <v>16</v>
@@ -2975,35 +3020,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="58" spans="1:12">
+    <row r="58" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A58" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__13Y</v>
+        <v>USD/USD.OIS__TermDeposit__13Y</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C58" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D58" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E58" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G58" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H58" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I58" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J58" s="5" t="s">
         <v>16</v>
@@ -3015,35 +3060,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="59" spans="1:12">
+    <row r="59" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A59" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__14Y</v>
+        <v>USD/USD.OIS__TermDeposit__14Y</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C59" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D59" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E59" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G59" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H59" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I59" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J59" s="5" t="s">
         <v>16</v>
@@ -3055,35 +3100,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="60" spans="1:12">
+    <row r="60" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A60" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__15Y</v>
+        <v>USD/USD.OIS__TermDeposit__15Y</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C60" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D60" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E60" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G60" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H60" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I60" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J60" s="5" t="s">
         <v>16</v>
@@ -3095,35 +3140,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="1:12">
+    <row r="61" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A61" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__16Y</v>
+        <v>USD/USD.OIS__TermDeposit__16Y</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C61" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D61" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E61" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G61" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H61" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I61" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J61" s="5" t="s">
         <v>16</v>
@@ -3135,35 +3180,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="62" spans="1:12">
+    <row r="62" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A62" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__17Y</v>
+        <v>USD/USD.OIS__TermDeposit__17Y</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C62" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D62" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E62" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G62" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H62" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I62" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J62" s="5" t="s">
         <v>16</v>
@@ -3175,35 +3220,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="63" spans="1:12">
+    <row r="63" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A63" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__18Y</v>
+        <v>USD/USD.OIS__TermDeposit__18Y</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C63" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D63" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E63" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G63" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H63" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I63" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J63" s="5" t="s">
         <v>16</v>
@@ -3215,35 +3260,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="64" spans="1:12">
+    <row r="64" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A64" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__19Y</v>
+        <v>USD/USD.OIS__TermDeposit__19Y</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C64" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D64" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E64" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G64" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H64" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I64" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J64" s="5" t="s">
         <v>16</v>
@@ -3255,35 +3300,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="65" spans="1:12">
+    <row r="65" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A65" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__20Y</v>
+        <v>USD/USD.OIS__TermDeposit__20Y</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C65" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D65" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E65" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G65" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H65" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I65" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J65" s="5" t="s">
         <v>16</v>
@@ -3295,35 +3340,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="66" spans="1:12">
+    <row r="66" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A66" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__25Y</v>
+        <v>USD/USD.OIS__TermDeposit__25Y</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C66" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D66" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E66" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G66" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H66" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I66" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J66" s="5" t="s">
         <v>16</v>
@@ -3335,35 +3380,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="67" spans="1:12">
+    <row r="67" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A67" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__30Y</v>
+        <v>USD/USD.OIS__TermDeposit__30Y</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C67" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D67" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E67" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G67" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H67" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I67" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J67" s="5" t="s">
         <v>16</v>
@@ -3375,35 +3420,35 @@
         <v>58</v>
       </c>
     </row>
-    <row r="68" spans="1:12">
+    <row r="68" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A68" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__35Y</v>
+        <v>USD/USD.OIS__TermDeposit__35Y</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C68" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D68" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E68" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G68" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H68" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I68" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J68" s="5" t="s">
         <v>16</v>
@@ -3415,35 +3460,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:12">
+    <row r="69" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A69" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__40Y</v>
+        <v>USD/USD.OIS__TermDeposit__40Y</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C69" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D69" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E69" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G69" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H69" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I69" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J69" s="5" t="s">
         <v>16</v>
@@ -3455,35 +3500,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="70" spans="1:12">
+    <row r="70" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A70" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__45Y</v>
+        <v>USD/USD.OIS__TermDeposit__45Y</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C70" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D70" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E70" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G70" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H70" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I70" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J70" s="5" t="s">
         <v>16</v>
@@ -3495,35 +3540,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="71" spans="1:12">
+    <row r="71" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A71" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__50Y</v>
+        <v>USD/USD.OIS__TermDeposit__50Y</v>
       </c>
       <c r="B71" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C71" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D71" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E71" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G71" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H71" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I71" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J71" s="5" t="s">
         <v>16</v>
@@ -3535,35 +3580,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="72" spans="1:12">
+    <row r="72" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A72" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__60Y</v>
+        <v>USD/USD.OIS__TermDeposit__60Y</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C72" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D72" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E72" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G72" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H72" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I72" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J72" s="5" t="s">
         <v>16</v>
@@ -3575,35 +3620,35 @@
         <v>57</v>
       </c>
     </row>
-    <row r="73" spans="1:12">
+    <row r="73" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A73" s="7" t="str">
         <f t="shared" si="5"/>
-        <v>USD-USDOIS__TermDeposit__70Y</v>
+        <v>USD/USD.OIS__TermDeposit__70Y</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="C73" s="5" t="s">
         <v>49</v>
       </c>
       <c r="D73" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E73" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G73" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H73" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I73" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="J73" s="5" t="s">
         <v>16</v>
@@ -3615,36 +3660,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="74" spans="1:12">
+    <row r="74" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A74" s="7" t="str">
         <f>CONCATENATE(B74,"__BasisSwap__",K74)</f>
-        <v>USDLIBOR6M__BasisSwap__3M</v>
+        <v>USD.LIBOR.6M__BasisSwap__3M</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C74" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D74" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E74" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G74" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H74" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I74" s="5" t="str">
         <f>E74</f>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J74" s="5" t="s">
         <v>16</v>
@@ -3656,36 +3701,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="75" spans="1:12">
+    <row r="75" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A75" s="7" t="str">
         <f t="shared" ref="A75:A103" si="7">CONCATENATE(B75,"__BasisSwap__",K75)</f>
-        <v>USDLIBOR6M__BasisSwap__6M</v>
+        <v>USD.LIBOR.6M__BasisSwap__6M</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C75" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D75" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E75" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G75" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H75" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I75" s="5" t="str">
         <f t="shared" ref="I75:I103" si="8">E75</f>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J75" s="5" t="s">
         <v>16</v>
@@ -3697,36 +3742,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="76" spans="1:12">
+    <row r="76" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A76" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__1Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__1Y</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C76" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D76" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E76" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G76" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H76" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I76" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J76" s="5" t="s">
         <v>16</v>
@@ -3738,36 +3783,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="77" spans="1:12">
+    <row r="77" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A77" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__2Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__2Y</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C77" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D77" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E77" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G77" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H77" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I77" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J77" s="5" t="s">
         <v>16</v>
@@ -3779,36 +3824,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="78" spans="1:12">
+    <row r="78" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A78" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__3Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__3Y</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C78" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D78" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E78" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G78" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H78" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I78" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J78" s="5" t="s">
         <v>16</v>
@@ -3820,36 +3865,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="79" spans="1:12">
+    <row r="79" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A79" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__4Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__4Y</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C79" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D79" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E79" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G79" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H79" s="5" t="str">
         <f t="shared" si="6"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I79" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J79" s="5" t="s">
         <v>16</v>
@@ -3861,36 +3906,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="80" spans="1:12">
+    <row r="80" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A80" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__5Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__5Y</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C80" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D80" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E80" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G80" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H80" s="5" t="str">
         <f t="shared" ref="H80:H103" si="9">D80</f>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I80" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J80" s="5" t="s">
         <v>16</v>
@@ -3902,36 +3947,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="81" spans="1:12">
+    <row r="81" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A81" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__6Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__6Y</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C81" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D81" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E81" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G81" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H81" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I81" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J81" s="5" t="s">
         <v>16</v>
@@ -3943,36 +3988,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="82" spans="1:12">
+    <row r="82" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A82" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__7Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__7Y</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C82" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D82" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E82" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G82" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H82" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I82" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J82" s="5" t="s">
         <v>16</v>
@@ -3984,36 +4029,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="83" spans="1:12">
+    <row r="83" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A83" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__8Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__8Y</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C83" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D83" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E83" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G83" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H83" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I83" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J83" s="5" t="s">
         <v>16</v>
@@ -4025,36 +4070,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="84" spans="1:12">
+    <row r="84" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A84" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__9Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__9Y</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C84" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D84" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E84" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G84" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H84" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I84" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J84" s="5" t="s">
         <v>16</v>
@@ -4066,36 +4111,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="85" spans="1:12">
+    <row r="85" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A85" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__10Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__10Y</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C85" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D85" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E85" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G85" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H85" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I85" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J85" s="5" t="s">
         <v>16</v>
@@ -4107,36 +4152,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="86" spans="1:12">
+    <row r="86" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A86" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__11Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__11Y</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C86" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D86" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E86" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G86" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H86" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I86" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J86" s="5" t="s">
         <v>16</v>
@@ -4148,36 +4193,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="87" spans="1:12">
+    <row r="87" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A87" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__12Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__12Y</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C87" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D87" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E87" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G87" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H87" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I87" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J87" s="5" t="s">
         <v>16</v>
@@ -4189,36 +4234,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="88" spans="1:12">
+    <row r="88" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A88" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__13Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__13Y</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C88" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D88" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E88" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G88" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H88" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I88" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J88" s="5" t="s">
         <v>16</v>
@@ -4230,36 +4275,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="89" spans="1:12">
+    <row r="89" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A89" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__14Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__14Y</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C89" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D89" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E89" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G89" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H89" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I89" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J89" s="5" t="s">
         <v>16</v>
@@ -4271,36 +4316,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="90" spans="1:12">
+    <row r="90" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A90" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__15Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__15Y</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C90" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D90" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E90" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G90" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H90" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I90" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J90" s="5" t="s">
         <v>16</v>
@@ -4312,36 +4357,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="91" spans="1:12">
+    <row r="91" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A91" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__16Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__16Y</v>
       </c>
       <c r="B91" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C91" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D91" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E91" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G91" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H91" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I91" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J91" s="5" t="s">
         <v>16</v>
@@ -4353,36 +4398,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="92" spans="1:12">
+    <row r="92" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A92" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__17Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__17Y</v>
       </c>
       <c r="B92" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C92" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D92" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E92" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G92" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H92" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I92" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J92" s="5" t="s">
         <v>16</v>
@@ -4394,36 +4439,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="93" spans="1:12">
+    <row r="93" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A93" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__18Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__18Y</v>
       </c>
       <c r="B93" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C93" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D93" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E93" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G93" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H93" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I93" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J93" s="5" t="s">
         <v>16</v>
@@ -4435,36 +4480,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="94" spans="1:12">
+    <row r="94" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A94" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__19Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__19Y</v>
       </c>
       <c r="B94" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C94" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D94" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E94" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G94" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H94" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I94" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J94" s="5" t="s">
         <v>16</v>
@@ -4476,36 +4521,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="95" spans="1:12">
+    <row r="95" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A95" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__20Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__20Y</v>
       </c>
       <c r="B95" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C95" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D95" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E95" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G95" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H95" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I95" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J95" s="5" t="s">
         <v>16</v>
@@ -4517,36 +4562,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="96" spans="1:12">
+    <row r="96" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A96" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__25Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__25Y</v>
       </c>
       <c r="B96" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C96" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D96" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E96" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G96" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H96" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I96" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J96" s="5" t="s">
         <v>16</v>
@@ -4558,36 +4603,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:12">
+    <row r="97" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A97" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__30Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__30Y</v>
       </c>
       <c r="B97" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C97" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D97" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E97" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G97" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H97" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I97" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J97" s="5" t="s">
         <v>16</v>
@@ -4599,36 +4644,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="98" spans="1:12">
+    <row r="98" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A98" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__35Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__35Y</v>
       </c>
       <c r="B98" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C98" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D98" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E98" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G98" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H98" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I98" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J98" s="5" t="s">
         <v>16</v>
@@ -4640,36 +4685,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="99" spans="1:12">
+    <row r="99" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A99" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__40Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__40Y</v>
       </c>
       <c r="B99" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C99" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D99" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E99" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G99" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H99" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I99" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J99" s="5" t="s">
         <v>16</v>
@@ -4681,36 +4726,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="100" spans="1:12">
+    <row r="100" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A100" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__45Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__45Y</v>
       </c>
       <c r="B100" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C100" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D100" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E100" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G100" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H100" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I100" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J100" s="5" t="s">
         <v>16</v>
@@ -4722,36 +4767,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="101" spans="1:12">
+    <row r="101" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A101" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__50Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__50Y</v>
       </c>
       <c r="B101" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C101" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D101" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E101" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G101" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H101" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I101" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J101" s="5" t="s">
         <v>16</v>
@@ -4763,36 +4808,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:12">
+    <row r="102" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A102" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__60Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__60Y</v>
       </c>
       <c r="B102" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C102" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D102" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E102" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G102" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H102" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I102" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J102" s="5" t="s">
         <v>16</v>
@@ -4804,36 +4849,36 @@
         <v>57</v>
       </c>
     </row>
-    <row r="103" spans="1:12">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A103" s="7" t="str">
         <f t="shared" si="7"/>
-        <v>USDLIBOR6M__BasisSwap__70Y</v>
+        <v>USD.LIBOR.6M__BasisSwap__70Y</v>
       </c>
       <c r="B103" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="C103" s="5" t="s">
         <v>59</v>
       </c>
       <c r="D103" s="5" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E103" s="5" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="G103" s="5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="H103" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>USDLIBOR3M</v>
+        <v>USD.LIBOR.3M</v>
       </c>
       <c r="I103" s="5" t="str">
         <f t="shared" si="8"/>
-        <v>USDLIBOR6M</v>
+        <v>USD.LIBOR.6M</v>
       </c>
       <c r="J103" s="5" t="s">
         <v>16</v>
@@ -4849,9 +4894,9 @@
   <conditionalFormatting sqref="C2:C73">
     <cfRule type="colorScale" priority="1">
       <colorScale>
-        <cfvo type="min" val="0"/>
+        <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
-        <cfvo type="max" val="0"/>
+        <cfvo type="max"/>
         <color rgb="FFF8696B"/>
         <color rgb="FFFFEB84"/>
         <color rgb="FF63BE7B"/>
@@ -4864,34 +4909,34 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.42578125" style="4" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.140625" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" style="6" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="4" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.109375" style="10" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.109375" style="6" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>54</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="B2" s="10">
         <v>1</v>
@@ -4900,9 +4945,9 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="B3" s="10">
         <v>2</v>
@@ -4911,9 +4956,9 @@
         <v>61</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="4" t="s">
-        <v>64</v>
+        <v>73</v>
       </c>
       <c r="B4" s="10">
         <v>1</v>
